--- a/notebooks/jesuitas-entrada-desc.xlsx
+++ b/notebooks/jesuitas-entrada-desc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G513"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9699,12 +9699,12 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-joao-da-veiga</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>João da Veiga</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Santiago de Priscos, diocese de Braga</t>
+          <t>Verros</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>15830000</t>
+          <t>16140000</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -9727,21 +9727,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "Em Coimbra no ano de 1582 segundo a Carta Annua de 1623."}}</t>
-        </is>
-      </c>
+      <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-veiga</t>
+          <t>deh-joao-de-abreu</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>João da Veiga</t>
+          <t>João de Abreu</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9751,12 +9747,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Verros</t>
+          <t>Elvas</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>16140000</t>
+          <t>16480000</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -9769,7 +9765,7 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-abreu</t>
+          <t>deh-joao-de-abreu-ref1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -9784,12 +9780,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Elvas</t>
+          <t>Santarém</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>16480000</t>
+          <t>16531012</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -9802,12 +9798,12 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-abreu-ref1</t>
+          <t>deh-joao-de-barros</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>João de Abreu</t>
+          <t>João de Barros</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9817,12 +9813,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Santarém</t>
+          <t>Gradil, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>16531012</t>
+          <t>17240402</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -9835,27 +9831,23 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-barros</t>
+          <t>deh-joao-de-borgia-kouo-ref1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>João de Barros</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>João Borja</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Gradil, diocese de Lisboa</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>17240402</t>
+          <t>16960710</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -9868,23 +9860,27 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-borgia-kouo-ref1</t>
+          <t>deh-joao-de-figueiredo</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>João Borja</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr"/>
+          <t>João de Figueiredo</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Viana</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>16960710</t>
+          <t>16500000</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -9897,12 +9893,12 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-figueiredo</t>
+          <t>deh-joao-de-lemos</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>João de Figueiredo</t>
+          <t>João de Lemos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -9912,12 +9908,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>Quintela, diocese de Lamego</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>16500000</t>
+          <t>17260602</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -9930,12 +9926,12 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-lemos</t>
+          <t>deh-joao-de-loureiro</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>João de Lemos</t>
+          <t>João de Loureiro</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9945,12 +9941,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Quintela, diocese de Lamego</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>17260602</t>
+          <t>17320503</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -9963,12 +9959,12 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-loureiro</t>
+          <t>deh-joao-de-seixas</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>João de Loureiro</t>
+          <t>João de Seixas</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9983,7 +9979,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>17320503</t>
+          <t>17271125</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -9991,17 +9987,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 1729"}}</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-seixas</t>
+          <t>deh-joao-de-seixas-ref3</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>João de Seixas</t>
+          <t>João de Seyxas</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>17271125</t>
+          <t>17030520</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -10024,36 +10024,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1729"}}</t>
-        </is>
-      </c>
+      <c r="G289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-seixas-ref3</t>
+          <t>deh-joao-de-sousa</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>João de Seyxas</t>
+          <t>João de Sousa</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>17030520</t>
+          <t>17491207</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -10066,27 +10062,27 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-sousa</t>
+          <t>deh-joao-duarte</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>João de Sousa</t>
+          <t>João Duarte</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>17491207</t>
+          <t>16900717</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10094,17 +10090,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr"/>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 1689"}}</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-duarte</t>
+          <t>deh-joao-fernandes-fou</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>João Duarte</t>
+          <t>João Fernandes Fou</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10114,12 +10114,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Ilha da Madeira</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>16900717</t>
+          <t>16630000</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10127,21 +10127,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1689"}}</t>
-        </is>
-      </c>
+      <c r="G292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-fernandes-fou</t>
+          <t>deh-joao-ferreira</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>João Fernandes Fou</t>
+          <t>João Ferreira</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10151,12 +10147,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Ilha da Madeira</t>
+          <t>Funchal, ilha da Madeira</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>16630000</t>
+          <t>16140000</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -10169,12 +10165,12 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-ferreira</t>
+          <t>deh-joao-francisco-cardoso</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>João Ferreira</t>
+          <t>João Francisco Cardoso</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10184,12 +10180,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Funchal, ilha da Madeira</t>
+          <t>Porto de Mós, diocese de Leiria</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>16140000</t>
+          <t>16921222</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10202,12 +10198,12 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-francisco-cardoso</t>
+          <t>deh-joao-frois</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>João Francisco Cardoso</t>
+          <t>João Fróis</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10217,12 +10213,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Porto de Mós, diocese de Leiria</t>
+          <t>Portalegre</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>16921222</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10235,12 +10231,12 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-frois</t>
+          <t>deh-joao-lopes</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>João Fróis</t>
+          <t>João Lopes</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10250,12 +10246,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Portalegre</t>
+          <t>Sabugal, diocese de Lamego</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16880316</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -10268,12 +10264,12 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-lopes</t>
+          <t>deh-joao-nunes</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>João Lopes</t>
+          <t>João Nunes</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10283,12 +10279,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Sabugal, diocese de Lamego</t>
+          <t>Montemor</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>16880316</t>
+          <t>16320000</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -10301,7 +10297,7 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-nunes</t>
+          <t>deh-joao-nunes-ref2</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -10316,12 +10312,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Montemor</t>
+          <t>Montemor-o-Velho, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>16320000</t>
+          <t>16090000</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -10334,7 +10330,7 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-nunes-ref2</t>
+          <t>deh-joao-nunes-ref3</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -10349,12 +10345,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Montemor-o-Velho, diocese de Coimbra</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>16090000</t>
+          <t>16310000</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10367,27 +10363,27 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-nunes-ref3</t>
+          <t>deh-joao-pacheco</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>João Nunes</t>
+          <t>João Pacheco</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>16310000</t>
+          <t>16880318</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -10395,17 +10391,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr"/>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 19 ou 28"}}</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-pacheco</t>
+          <t>deh-joao-pereira-i</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>João Pacheco</t>
+          <t>João Pereira</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>16880318</t>
+          <t>16520000</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10428,36 +10428,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 19 ou 28"}}</t>
-        </is>
-      </c>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-pereira-i</t>
+          <t>deh-joao-simoes</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>João Pereira</t>
+          <t>João Simões</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Penela, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>16520000</t>
+          <t>17340517</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -10470,27 +10466,23 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-simoes</t>
+          <t>deh-joao-soeiro-ref1</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>João Simões</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Juan Soeiro</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Penela, diocese de Coimbra</t>
+          <t>Alcácer-Ceguer</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>17340517</t>
+          <t>15610000</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10503,23 +10495,27 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-soeiro-ref1</t>
+          <t>deh-joaquim-de-azevedo</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Juan Soeiro</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
+          <t>Joaquim de Azevedo</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Alcácer-Ceguer</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>15610000</t>
+          <t>17460615</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10532,27 +10528,27 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>deh-joaquim-de-azevedo</t>
+          <t>deh-johann-alberich</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Joaquim de Azevedo</t>
+          <t>Johann Alberich</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Dorenbüren</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>17460615</t>
+          <t>16051105</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10565,12 +10561,12 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>deh-johann-alberich</t>
+          <t>deh-johann-hoppe</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Johann Alberich</t>
+          <t>Johann Hoppe</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10580,12 +10576,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Dorenbüren</t>
+          <t>Schweidnitz, Silésia</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>16051105</t>
+          <t>17241020</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -10598,27 +10594,27 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>deh-johann-hoppe</t>
+          <t>deh-johann-siebert</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Johann Hoppe</t>
+          <t>Johann Siebert</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Schweidnitz, Silésia</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>17241020</t>
+          <t>17231009</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -10631,27 +10627,27 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>deh-johann-siebert</t>
+          <t>deh-johannes-ciermans</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Johann Siebert</t>
+          <t>Johannes Ciermans</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>Holanda</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>'s-Hertogenbosch, Holanda</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>17231009</t>
+          <t>16191106</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -10664,27 +10660,27 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>deh-johannes-ciermans</t>
+          <t>deh-jose-correa-tcheou</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Johannes Ciermans</t>
+          <t>José Correa Tcheou</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Holanda</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch, Holanda</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>16191106</t>
+          <t>17490201</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10697,27 +10693,27 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-correa-tcheou</t>
+          <t>deh-jose-da-silva</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>José Correa Tcheou</t>
+          <t>José da Silva</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Soure, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>17490201</t>
+          <t>1740225</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10730,12 +10726,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-da-silva</t>
+          <t>deh-jose-de-almeida-ii</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>José da Silva</t>
+          <t>José de Almeida</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10745,12 +10741,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Soure, diocese de Coimbra</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>1740225</t>
+          <t>16730000</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10763,7 +10759,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-almeida-ii</t>
+          <t>deh-jose-de-almeida-iii</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -10778,12 +10774,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Arcos, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>16730000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10791,17 +10787,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr"/>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-almeida-iii</t>
+          <t>deh-jose-de-araujo</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>José de Almeida</t>
+          <t>José de Araújo</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -10811,12 +10811,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Arcos, diocese de Coimbra</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>17410327</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10824,21 +10824,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-araujo</t>
+          <t>deh-jose-de-espinha</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>José de Araújo</t>
+          <t>José de Espinha</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10848,12 +10844,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Vilar Torpim, diocese de Lamego</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>17410327</t>
+          <t>17390604</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10866,27 +10862,23 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-espinha</t>
+          <t>deh-jose-de-lima-ref1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>José de Espinha</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>José de Lima</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Vilar Torpim, diocese de Lamego</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>17390604</t>
+          <t>17410101</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10894,12 +10886,16 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr"/>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 10"}}</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-lima-ref1</t>
+          <t>deh-jose-de-lima-ref2</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -10910,12 +10906,12 @@
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Aguiar</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>17410101</t>
+          <t>17541124</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -10923,32 +10919,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 10"}}</t>
-        </is>
-      </c>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-lima-ref2</t>
+          <t>deh-jose-de-magalhaes</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>José de Lima</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
+          <t>José de Magalhães</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Aguiar</t>
+          <t>Amarante, diocese de Braga</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>17541124</t>
+          <t>16490000</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10961,12 +10957,12 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-magalhaes</t>
+          <t>deh-jose-de-sousa</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>José de Magalhães</t>
+          <t>José de Sousa</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -10976,12 +10972,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Amarante, diocese de Braga</t>
+          <t>Múrcia, diocese de Braga</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>16490000</t>
+          <t>17120226</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10994,12 +10990,12 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-sousa</t>
+          <t>deh-jose-estevao-de-almeida</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>José de Sousa</t>
+          <t>José Estêvão de Almeida</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11009,12 +11005,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Múrcia, diocese de Braga</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>17120226</t>
+          <t>16280000</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -11027,27 +11023,27 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-estevao-de-almeida</t>
+          <t>deh-jose-felix</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>José Estêvão de Almeida</t>
+          <t>José Félix</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>16280000</t>
+          <t>17491207</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -11060,27 +11056,27 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-felix</t>
+          <t>deh-jose-galvao</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>José Félix</t>
+          <t>José Galvão</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>17491207</t>
+          <t>17431016</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -11088,12 +11084,16 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G321" t="inlineStr"/>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "segundo Pf."}}</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-galvao</t>
+          <t>deh-jose-galvao-ref1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Condeixa, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>17431016</t>
+          <t>17251112</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -11121,36 +11121,28 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "segundo Pf."}}</t>
-        </is>
-      </c>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-galvao-ref1</t>
+          <t>deh-jose-mendes-dos-reis-ref2</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>José Galvão</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Joachim Joseph</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Condeixa, diocese de Coimbra</t>
+          <t>Diocese de Viso</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>17251112</t>
+          <t>17281229</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -11163,23 +11155,27 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-mendes-dos-reis-ref2</t>
+          <t>deh-jose-monteiro</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Joachim Joseph</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
+          <t>José Monteiro</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Diocese de Viso</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>17281229</t>
+          <t>16611217</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -11187,32 +11183,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G324" t="inlineStr"/>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 1663"}}</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-monteiro</t>
+          <t>deh-jose-ramon-arxo-ref2</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>José Monteiro</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Ramón Arjó</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Benasque, Huesca</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>16611217</t>
+          <t>16741116</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -11220,32 +11216,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1663"}}</t>
-        </is>
-      </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-ramon-arxo-ref2</t>
+          <t>deh-jose-rosado</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ramón Arjó</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
+          <t>José Rosado</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Benasque, Huesca</t>
+          <t>Vimieiro, diocese de Évora</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>16741116</t>
+          <t>17291026</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -11258,12 +11254,12 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-rosado</t>
+          <t>deh-jose-simoes</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>José Rosado</t>
+          <t>José Simões</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11273,12 +11269,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Vimieiro, diocese de Évora</t>
+          <t>Lamego</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>17291026</t>
+          <t>16940828</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -11291,12 +11287,12 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-simoes</t>
+          <t>deh-jose-soares</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>José Simões</t>
+          <t>José Soares</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11306,12 +11302,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Lamego</t>
+          <t>Santa Comba Dão, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>16940828</t>
+          <t>16730300</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -11319,32 +11315,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G328" t="inlineStr"/>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "a 15, 23 ou 25"}}</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-soares</t>
+          <t>deh-joseph-de-aguiar-souen</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>José Soares</t>
+          <t>Joseph de Aguiar Souen</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Santa Comba Dão, diocese de Coimbra</t>
+          <t>Changshu, Kiang-sou, China</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>16730300</t>
+          <t>17420921</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -11352,21 +11352,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "a 15, 23 ou 25"}}</t>
-        </is>
-      </c>
+      <c r="G329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-de-aguiar-souen</t>
+          <t>deh-joseph-ferreira</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Joseph de Aguiar Souen</t>
+          <t>Joseph Ferreira</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11376,12 +11372,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Changshu, Kiang-sou, China</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>17420921</t>
+          <t>17310000</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -11389,32 +11385,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "novi\u00e7o"}}</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-ferreira</t>
+          <t>deh-joseph-ferreira-ref3</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Joseph Ferreira</t>
+          <t>José Ferreyra</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Peniche, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>17310000</t>
+          <t>17080517</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11422,36 +11422,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "novi\u00e7o"}}</t>
-        </is>
-      </c>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-ferreira-ref3</t>
+          <t>deh-joseph-francois-tissanier</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>José Ferreyra</t>
+          <t>Joseph François Tissanier</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Peniche, diocese de Lisboa</t>
+          <t>Port-Sainte-Marie</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>17080517</t>
+          <t>16431029</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -11464,12 +11460,12 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-francois-tissanier</t>
+          <t>deh-joseph-henri</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Joseph François Tissanier</t>
+          <t>Joseph Henri</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11479,12 +11475,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Port-Sainte-Marie</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>16431029</t>
+          <t>16850312</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -11497,12 +11493,12 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-henri</t>
+          <t>deh-joseph-henry-marie-de-premare</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Joseph Henri</t>
+          <t>Joseph Henry-Marie de Prémare</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11512,12 +11508,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Cherbourg</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>16850312</t>
+          <t>16830816</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -11530,12 +11526,12 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-henry-marie-de-premare</t>
+          <t>deh-joseph-labbe</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Joseph Henry-Marie de Prémare</t>
+          <t>Joseph Labbe</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11545,12 +11541,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Cherbourg</t>
+          <t>Bourges</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>16830816</t>
+          <t>17010911</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -11563,12 +11559,12 @@
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-labbe</t>
+          <t>deh-joseph-marie-anne-de-moyriac-mailla</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Joseph Labbe</t>
+          <t>Joseph Marie Anne de Moyriac Mailla</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11578,12 +11574,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Bourges</t>
+          <t>Maillac (palácio)</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>17010911</t>
+          <t>16860912</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -11596,27 +11592,27 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-marie-anne-de-moyriac-mailla</t>
+          <t>deh-joseph-tcheou</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Joseph Marie Anne de Moyriac Mailla</t>
+          <t>Joseph Tcheou</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Maillac (palácio)</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>16860912</t>
+          <t>17350207</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -11629,27 +11625,27 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-tcheou</t>
+          <t>deh-juan-baptista-de-ribera</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Joseph Tcheou</t>
+          <t>Juan Baptista de Ribera</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Jerez de la Frontera</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>17350207</t>
+          <t>15540000</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -11662,27 +11658,23 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>deh-juan-baptista-de-ribera</t>
+          <t>deh-juan-escobar-ref1</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Juan Baptista de Ribera</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Espanha</t>
-        </is>
-      </c>
+          <t>Juan Escobar</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Jerez de la Frontera</t>
+          <t>Ciudad Rodrigo, diocese de Toledo</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>15540000</t>
+          <t>16300406</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -11695,23 +11687,27 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>deh-juan-escobar-ref1</t>
+          <t>deh-juan-miguel-de-irigoyen</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Juan Escobar</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>Juan Miguel de Irigoyen</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Espanha</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Ciudad Rodrigo, diocese de Toledo</t>
+          <t>Pamplona, Navarra</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>16300406</t>
+          <t>16620319</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -11724,27 +11720,27 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>deh-juan-miguel-de-irigoyen</t>
+          <t>deh-julien-a-cruz</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Juan Miguel de Irigoyen</t>
+          <t>Julien a Cruz</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Pamplona, Navarra</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>16620319</t>
+          <t>16780000</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -11752,17 +11748,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G341" t="inlineStr"/>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "diz que esteve em miss\u00e3o num semestre em 1681, n\u00e3o est\u00e1 no cat\u00e1logo de 1683"}}</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>deh-julien-a-cruz</t>
+          <t>deh-julien-xavier-tcheng</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Julien a Cruz</t>
+          <t>Julien Xavier Tch'eng</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11772,12 +11772,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>17290324</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -11785,36 +11785,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "diz que esteve em miss\u00e3o num semestre em 1681, n\u00e3o est\u00e1 no cat\u00e1logo de 1683"}}</t>
-        </is>
-      </c>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>deh-julien-xavier-tcheng</t>
+          <t>deh-leon-gonzaga</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Julien Xavier Tch'eng</t>
+          <t>Léon Gonzaga</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>17290324</t>
+          <t>16690000</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -11827,27 +11823,27 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>deh-leon-gonzaga</t>
+          <t>deh-leon-pascal-baron</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Léon Gonzaga</t>
+          <t>Léon-Pascal Baron</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Carcassone</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>16690000</t>
+          <t>17570406</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -11860,27 +11856,27 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>deh-leon-pascal-baron</t>
+          <t>deh-leopold-liebstain</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Léon-Pascal Baron</t>
+          <t>Leopold Liebstain</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Carcassone</t>
+          <t>Neisse, Silésia</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>17570406</t>
+          <t>16851014</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -11893,27 +11889,27 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>deh-leopold-liebstain</t>
+          <t>deh-lodovico-azzi</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Leopold Liebstain</t>
+          <t>Lodovico Azzi</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Neisse, Silésia</t>
+          <t>Lucca</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>16851014</t>
+          <t>16560401</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -11926,27 +11922,27 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>deh-lodovico-azzi</t>
+          <t>deh-louis-barnabe</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Lodovico Azzi</t>
+          <t>Louis Barnabé</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Lucca</t>
+          <t>Loches (Indre-et-Loire)</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>16560401</t>
+          <t>16660831</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -11954,17 +11950,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G347" t="inlineStr"/>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16661211"}}</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-barnabe</t>
+          <t>deh-louis-de-pernon</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Louis Barnabé</t>
+          <t>Louis de Pernon</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -11974,12 +11974,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Loches (Indre-et-Loire)</t>
+          <t>Montauban</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>16660831</t>
+          <t>16800902</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -11987,21 +11987,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16661211"}}</t>
-        </is>
-      </c>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-de-pernon</t>
+          <t>deh-louis-gobet</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Louis de Pernon</t>
+          <t>Louis Gobet</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12011,12 +12007,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Montauban</t>
+          <t>Château-Thierry, diocese de Soissons</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>16800902</t>
+          <t>16320927</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -12029,12 +12025,12 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-gobet</t>
+          <t>deh-louis-jacquemin-ref2</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Louis Gobet</t>
+          <t>Louis Jacquemin</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12044,12 +12040,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Château-Thierry, diocese de Soissons</t>
+          <t>Verdun</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>16320927</t>
+          <t>16950927</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -12062,12 +12058,12 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-jacquemin-ref2</t>
+          <t>deh-louis-jean-xavier-armand-nyel</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Louis Jacquemin</t>
+          <t>Louis Jean-Xavier Armand Nyel</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12077,12 +12073,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Verdun</t>
+          <t>Vitry</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>16950927</t>
+          <t>16861028</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -12095,12 +12091,12 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-jean-xavier-armand-nyel</t>
+          <t>deh-louis-joseph-le-febure</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Louis Jean-Xavier Armand Nyel</t>
+          <t>Louis-Joseph Le Febure</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12110,12 +12106,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Vitry</t>
+          <t>Clisson</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>16861028</t>
+          <t>17221118</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -12123,17 +12119,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G352" t="inlineStr"/>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17221128"}}</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-joseph-le-febure</t>
+          <t>deh-louis-rochette</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Louis-Joseph Le Febure</t>
+          <t>Louis Rochette</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12143,12 +12143,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Clisson</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>17221118</t>
+          <t>16610918</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -12156,21 +12156,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17221128"}}</t>
-        </is>
-      </c>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-rochette</t>
+          <t>deh-louis-velay</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Louis Rochette</t>
+          <t>Louis Velay</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12180,12 +12176,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Tournon</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>16610918</t>
+          <t>16840227</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -12198,27 +12194,27 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-velay</t>
+          <t>deh-lucas-correa</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Louis Velay</t>
+          <t>Lucas Correa</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tournon</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>16840227</t>
+          <t>16280000</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -12231,27 +12227,27 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>deh-lucas-correa</t>
+          <t>deh-lucas-pinto</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Lucas Correa</t>
+          <t>Lucas Pinto</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>16280000</t>
+          <t>17070612</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -12264,27 +12260,27 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>deh-lucas-pinto</t>
+          <t>deh-luigi-cipolla</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Lucas Pinto</t>
+          <t>Luigi Cipolla</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Caltavuturo, Palermo, Sicília</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>17070612</t>
+          <t>17571105</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -12297,27 +12293,23 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>deh-luigi-cipolla</t>
+          <t>deh-luigi-gonzaga-ref4</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Luigi Cipolla</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>Itália</t>
-        </is>
-      </c>
+          <t>Aloysius Gonzaga</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Caltavuturo, Palermo, Sicília</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>17571105</t>
+          <t>16930000</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -12325,28 +12317,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G358" t="inlineStr"/>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16830804"}}</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>deh-luigi-gonzaga-ref4</t>
+          <t>deh-luis-da-gama</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Aloysius Gonzaga</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr"/>
+          <t>Luís da Gama</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Lavre, diocese de Évora</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>16930000</t>
+          <t>16250000</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -12354,36 +12354,28 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16830804"}}</t>
-        </is>
-      </c>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-da-gama</t>
+          <t>deh-luis-de-caldas-ref1</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Luís da Gama</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Aloysius Gonzaga Caldas</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Lavre, diocese de Évora</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>16250000</t>
+          <t>17501031</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -12391,28 +12383,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr"/>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "sai em 17661112"}}</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-caldas-ref1</t>
+          <t>deh-luis-de-carvalho-i</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Aloysius Gonzaga Caldas</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr"/>
+          <t>Luís de Carvalho</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Guimarães</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>17501031</t>
+          <t>17440827</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -12422,14 +12422,14 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "sai em 17661112"}}</t>
+          <t>marcado destinado à China em 17490000</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-carvalho-i</t>
+          <t>deh-luis-de-carvalho-ii</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -12444,12 +12444,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Guimarães</t>
+          <t>Miranda do Corvo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>17440827</t>
+          <t>17490327</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12457,36 +12457,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>marcado destinado à China em 17490000</t>
-        </is>
-      </c>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-carvalho-ii</t>
+          <t>deh-luis-de-faria</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Luís de Carvalho</t>
+          <t>Luís de Faria</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Miranda do Corvo, diocese de Coimbra</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>17490327</t>
+          <t>16200000</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12499,12 +12495,12 @@
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-faria</t>
+          <t>deh-luis-de-figueiredo</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Luís de Faria</t>
+          <t>Luís de Figueiredo</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12519,7 +12515,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>16200000</t>
+          <t>16450000</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12527,32 +12523,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr"/>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16460000"}}</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-figueiredo</t>
+          <t>deh-luis-de-moura</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Luís de Figueiredo</t>
+          <t>Luís de Moura</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>16450000</t>
+          <t>17350000</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12560,21 +12560,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16460000"}}</t>
-        </is>
-      </c>
+      <c r="G365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-moura</t>
+          <t>deh-luis-de-sequeira</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Luís de Moura</t>
+          <t>Luís de Sequeira</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12584,12 +12580,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Carcavelos</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>17350000</t>
+          <t>17090901</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12602,12 +12598,12 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-sequeira</t>
+          <t>deh-luis-duarte</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Luís de Sequeira</t>
+          <t>Luís Duarte</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12617,12 +12613,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Carcavelos</t>
+          <t>Rio de Vide, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>17090901</t>
+          <t>17460519</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12635,12 +12631,12 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-duarte</t>
+          <t>deh-luis-pereira</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Luís Duarte</t>
+          <t>Luís Pereira</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12650,12 +12646,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Rio de Vide, diocese de Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>17460519</t>
+          <t>17251125</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12668,12 +12664,12 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-pereira</t>
+          <t>deh-luis-pinheiro</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Luís Pereira</t>
+          <t>Luís Pinheiro</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12683,12 +12679,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>17251125</t>
+          <t>16370000</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12721,7 +12717,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>16370000</t>
+          <t>16450000</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -12734,27 +12730,27 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-pinheiro</t>
+          <t>deh-luis-rodrigues</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Luís Pinheiro</t>
+          <t>Luís Rodrigues</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>16450000</t>
+          <t>16830421</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -12767,27 +12763,27 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-rodrigues</t>
+          <t>deh-magnani-ref1</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Luís Rodrigues</t>
+          <t>Agostino Magnani</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Bolonha</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>16830421</t>
+          <t>17621012</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -12800,12 +12796,12 @@
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>deh-magnani-ref1</t>
+          <t>deh-magnani-ref2</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Agostino Magnani</t>
+          <t>Giovanni Nadale Magnani</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -12820,7 +12816,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>17621012</t>
+          <t>17631025</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -12833,27 +12829,27 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>deh-magnani-ref2</t>
+          <t>deh-manoel-soares</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Giovanni Nadale Magnani</t>
+          <t>Manoel Soares</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Bolonha</t>
+          <t>Pouva, diocese de Portalegre</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>17631025</t>
+          <t>16300000</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -12866,27 +12862,27 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>deh-manoel-soares</t>
+          <t>deh-manuel-a-costa</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Manoel Soares</t>
+          <t>Manuel a Costa</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Pouva, diocese de Portalegre</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>16300000</t>
+          <t>16520000</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -12899,27 +12895,27 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-a-costa</t>
+          <t>deh-manuel-camello</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Manuel a Costa</t>
+          <t>Manuel Camello</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Penajóia, diocese de Lamego</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>16520000</t>
+          <t>17000000</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -12932,12 +12928,12 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-camello</t>
+          <t>deh-manuel-carvalho-ii</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Manuel Camello</t>
+          <t>Manuel Carvalho</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -12947,12 +12943,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Penajóia, diocese de Lamego</t>
+          <t>Tancos, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>17000000</t>
+          <t>16780000</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -12960,17 +12956,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G377" t="inlineStr"/>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "se for ele"}}</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-carvalho-ii</t>
+          <t>deh-manuel-cortese</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Manuel Carvalho</t>
+          <t>Manuel Cortese</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Tancos, diocese de Lisboa</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -12993,21 +12993,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "se for ele"}}</t>
-        </is>
-      </c>
+      <c r="G378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-cortese</t>
+          <t>deh-manuel-da-costa</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Manuel Cortese</t>
+          <t>Manuel da Costa</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13017,12 +13013,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Figueiró, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17481209</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -13030,17 +13026,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G379" t="inlineStr"/>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "estava j\u00e1 no noviciado"}}</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-da-costa</t>
+          <t>deh-manuel-da-mata</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Manuel da Costa</t>
+          <t>Manuel da Mata</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13050,12 +13050,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Figueiró, diocese de Coimbra</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>17481209</t>
+          <t>16820204</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -13063,21 +13063,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "estava j\u00e1 no noviciado"}}</t>
-        </is>
-      </c>
+      <c r="G380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-da-mata</t>
+          <t>deh-manuel-da-motta</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Manuel da Mata</t>
+          <t>Manuel da Motta</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13087,12 +13083,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>16820204</t>
+          <t>17360519</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -13105,12 +13101,12 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-da-motta</t>
+          <t>deh-manuel-de-azevedo</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Manuel da Motta</t>
+          <t>Manuel de Azevedo</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13120,12 +13116,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Viseu</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>17360519</t>
+          <t>15870000</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -13138,12 +13134,12 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-azevedo</t>
+          <t>deh-manuel-de-carvalho</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Manuel de Azevedo</t>
+          <t>Manuel de Carvalho</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13153,12 +13149,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Viseu</t>
+          <t>Porto de Mós, diocese de Leiria</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>15870000</t>
+          <t>17240402</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -13171,12 +13167,12 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-carvalho</t>
+          <t>deh-manuel-de-carvalho-i</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Manuel de Carvalho</t>
+          <t>Manuel Carvalho</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13186,12 +13182,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Porto de Mós, diocese de Leiria</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>17240402</t>
+          <t>16470000</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -13204,12 +13200,12 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-carvalho-i</t>
+          <t>deh-manuel-de-carvalho-ii</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Manuel Carvalho</t>
+          <t>Manuel de Carvalho</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13219,12 +13215,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Águeda, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>16470000</t>
+          <t>17470102</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -13232,17 +13228,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G385" t="inlineStr"/>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>talvez tenha saído durante o noviciado extra_info: {"value": {"comment": "para a China"}}</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-carvalho-ii</t>
+          <t>deh-manuel-de-figueiredo</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Manuel de Carvalho</t>
+          <t>Manuel de Figueiredo</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13252,12 +13252,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Águeda, diocese de Coimbra</t>
+          <t>S. André de Medi, diocese do Porto</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>17470102</t>
+          <t>16110000</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -13265,36 +13265,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>talvez tenha saído durante o noviciado extra_info: {"value": {"comment": "para a China"}}</t>
-        </is>
-      </c>
+      <c r="G386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-figueiredo</t>
+          <t>deh-manuel-de-morais</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Manuel de Figueiredo</t>
+          <t>Manuel de Morais</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>S. André de Medi, diocese do Porto</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>16110000</t>
+          <t>17310814</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -13307,27 +13303,27 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-morais</t>
+          <t>deh-manuel-de-pereira-ii</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Manuel de Morais</t>
+          <t>Manuel de Pereira</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lugar da Cruz</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>17310814</t>
+          <t>16550000</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -13340,27 +13336,23 @@
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-pereira-ii</t>
+          <t>deh-manuel-de-pereira-ref2</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Manuel de Pereira</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Manuel Pereira</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Lugar da Cruz</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>16550000</t>
+          <t>16450000</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -13368,28 +13360,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G389" t="inlineStr"/>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "?"}}</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-pereira-ref2</t>
+          <t>deh-manuel-de-silva</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Manuel Pereira</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
+          <t>Manuel de Silva</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Tomar</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>16450000</t>
+          <t>17470406</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -13397,16 +13397,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "?"}}</t>
-        </is>
-      </c>
+      <c r="G390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-silva</t>
+          <t>deh-manuel-de-silva-ref1</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -13421,12 +13417,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Tomar</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>17470406</t>
+          <t>17120329</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -13439,12 +13435,12 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-silva-ref1</t>
+          <t>deh-manuel-de-sousa</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Manuel de Silva</t>
+          <t>Manuel de Sousa</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13454,12 +13450,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>17120329</t>
+          <t>16940825</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -13472,12 +13468,12 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-sousa</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Manuel de Sousa</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13487,12 +13483,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Castelo Branco</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>16940825</t>
+          <t>15930202</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -13505,12 +13501,12 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-manuel-dos-reis</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Manuel dos Reis</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13520,12 +13516,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Castelo Branco</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>15930202</t>
+          <t>16550000</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -13538,12 +13534,12 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dos-reis</t>
+          <t>deh-manuel-gaspar</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Manuel dos Reis</t>
+          <t>Manuel Gaspar</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13553,12 +13549,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>São João Batista de Lobrigos, diocese do Porto</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>16550000</t>
+          <t>15750926</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -13571,12 +13567,12 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-gaspar</t>
+          <t>deh-manuel-gomes-formao</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Manuel Gaspar</t>
+          <t>Manuel Gomes Formão</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13586,12 +13582,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>São João Batista de Lobrigos, diocese do Porto</t>
+          <t>Melgaço, diocese de Braga</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>15750926</t>
+          <t>17340213</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -13604,12 +13600,12 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-gomes-formao</t>
+          <t>deh-manuel-goncalves</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Manuel Gomes Formão</t>
+          <t>Manuel Gonçalves</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13619,12 +13615,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Melgaço, diocese de Braga</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>17340213</t>
+          <t>17390810</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -13637,12 +13633,12 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-goncalves</t>
+          <t>deh-manuel-jose</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Manuel Gonçalves</t>
+          <t>Manuel José</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13652,12 +13648,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Guemara, diocese de Braga</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>17390810</t>
+          <t>17290820</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -13665,32 +13661,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G398" t="inlineStr"/>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17290802"}}</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jose</t>
+          <t>deh-manuel-jose-ref1</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Manuel José</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Guemara, diocese de Braga</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>17290820</t>
+          <t>17130000</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -13700,19 +13700,19 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 17290802"}}</t>
+          <t>sic, Dehergne aponta com !</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jose-ref1</t>
+          <t>deh-manuel-lopes</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Manuel Lopes</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13722,12 +13722,12 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>17130000</t>
+          <t>17491207</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -13735,36 +13735,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>sic, Dehergne aponta com !</t>
-        </is>
-      </c>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-lopes</t>
+          <t>deh-manuel-lopes-ref1</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Manuel Lopes</t>
+          <t>Manuel Lopes Bulhão</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>17491207</t>
+          <t>15490210</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -13777,12 +13773,12 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-lopes-ref1</t>
+          <t>deh-manuel-lopes-ref3</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Manuel Lopes Bulhão</t>
+          <t>Manuel Lopes</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -13792,12 +13788,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Abrantes, diocese da Guarda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>15490210</t>
+          <t>16030000</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -13810,12 +13806,12 @@
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-lopes-ref3</t>
+          <t>deh-manuel-marques</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Manuel Lopes</t>
+          <t>Manuel Marques</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -13825,12 +13821,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Abrantes, diocese da Guarda</t>
+          <t>Diocese de Évora</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>16030000</t>
+          <t>16931125</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -13843,12 +13839,12 @@
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-marques</t>
+          <t>deh-manuel-oliveira-ref1</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Manuel Marques</t>
+          <t>Manuel Oliveira</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -13858,12 +13854,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Diocese de Évora</t>
+          <t>Torroselo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>16931125</t>
+          <t>17531001</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -13876,27 +13872,27 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-oliveira-ref1</t>
+          <t>deh-manuel-pereira-yeou</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Manuel Oliveira</t>
+          <t>Manuel Pereira Yeou</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Torroselo, diocese de Coimbra</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>17531001</t>
+          <t>16050815</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -13909,27 +13905,27 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-pereira-yeou</t>
+          <t>deh-manuel-pinto-ii</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Manuel Pereira Yeou</t>
+          <t>Manuel Pinto</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>16050815</t>
+          <t>16520314</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -13942,7 +13938,7 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-pinto-ii</t>
+          <t>deh-manuel-pinto-iii</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -13957,12 +13953,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Nespereira, diocese de Viseu</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>16520314</t>
+          <t>17041230</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -13975,12 +13971,12 @@
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-pinto-iii</t>
+          <t>deh-manuel-ribeiro-junior</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Manuel Pinto</t>
+          <t>Manuel Ribeiro, junior</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -13990,12 +13986,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Nespereira, diocese de Viseu</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>17041230</t>
+          <t>17000301</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -14008,27 +14004,27 @@
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-ribeiro-junior</t>
+          <t>deh-manuel-rodrigues-i</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Manuel Ribeiro, junior</t>
+          <t>Manuel Rodrigues</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>17000301</t>
+          <t>16020000</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -14041,7 +14037,7 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-rodrigues-i</t>
+          <t>deh-manuel-rodrigues-ii-ref3</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -14051,17 +14047,17 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>16020000</t>
+          <t>16260000</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -14074,7 +14070,7 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-rodrigues-ii-ref3</t>
+          <t>deh-manuel-rodrigues-iii</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -14084,17 +14080,17 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>16260000</t>
+          <t>16810102</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -14107,27 +14103,27 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-rodrigues-iii</t>
+          <t>deh-manuel-teles</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Manuel Rodrigues</t>
+          <t>Manuel Teles</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Arraiolos, diocese de Évora</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>16810102</t>
+          <t>16930824</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -14135,17 +14131,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G412" t="inlineStr"/>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "aparece inscrito, mas depois o seu nome \u00e9 repetio em \u00c9vora, 16970925, ter\u00e1 sa\u00eddo no entretanto?"}}</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-teles</t>
+          <t>deh-manuel-viegas</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Manuel Teles</t>
+          <t>Manuel Viegas</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14155,12 +14155,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Arraiolos, diocese de Évora</t>
+          <t>Marvão, diocese de Portalegre</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>16930824</t>
+          <t>17290731</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -14170,34 +14170,34 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "aparece inscrito, mas depois o seu nome \u00e9 repetio em \u00c9vora, 16970925, ter\u00e1 sa\u00eddo no entretanto?"}}</t>
+          <t>extra_info: {"value": {"comment": "o cat\u00e1logo de 1717 diz 17170509, a primeira data vem do cat\u00e1logo de 1734"}}</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-viegas</t>
+          <t>deh-marc-ribeiro-kouan</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Manuel Viegas</t>
+          <t>Marc Ribeiro Kouan</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Marvão, diocese de Portalegre</t>
+          <t>Soochow (Sou-tcheou fou), Kiangnan</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>17290731</t>
+          <t>17420921</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -14205,36 +14205,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "o cat\u00e1logo de 1717 diz 17170509, a primeira data vem do cat\u00e1logo de 1734"}}</t>
-        </is>
-      </c>
+      <c r="G414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>deh-marc-ribeiro-kouan</t>
+          <t>deh-martim-correa</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Marc Ribeiro Kouan</t>
+          <t>Martim Correa</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Soochow (Sou-tcheou fou), Kiangnan</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>17420921</t>
+          <t>17200815</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -14247,27 +14243,27 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>deh-martim-correa</t>
+          <t>deh-martin-spilleben</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Martim Correa</t>
+          <t>Martin Spilleben</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Bruges</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>17200815</t>
+          <t>16090104</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -14280,27 +14276,27 @@
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>deh-martin-spilleben</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Martin Spilleben</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Bruges</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>16090104</t>
+          <t>15831222</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -14313,12 +14309,12 @@
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-mateus-de-figueiredo</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>Mateus de Figueiredo</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14328,12 +14324,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>S. Joaninho, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>15831222</t>
+          <t>17440404</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -14341,17 +14337,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G418" t="inlineStr"/>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "para a China"}}</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-figueiredo</t>
+          <t>deh-mateus-gago</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Mateus de Figueiredo</t>
+          <t>Mateus Gago</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14361,12 +14361,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>S. Joaninho, diocese de Coimbra</t>
+          <t>Serpa, diocese de Évora</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>17440404</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -14374,36 +14374,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "para a China"}}</t>
-        </is>
-      </c>
+      <c r="G419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-gago</t>
+          <t>deh-mateus-vaz</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Mateus Gago</t>
+          <t>Mateus Vaz</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Serpa, diocese de Évora</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16320000</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -14411,32 +14407,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G420" t="inlineStr"/>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 1634"}}</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-vaz</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Mateus Vaz</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Atalaia, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>16320000</t>
+          <t>16290510</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -14444,21 +14444,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1634"}}</t>
-        </is>
-      </c>
+      <c r="G421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-matias-de-sousa</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Matias de Sousa</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14468,12 +14464,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Atalaia, diocese de Lisboa</t>
+          <t>Amarante, diocese de Braga</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>16290510</t>
+          <t>16110000</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -14486,27 +14482,23 @@
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-de-sousa</t>
+          <t>deh-matthieu-kang</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Matias de Sousa</t>
+          <t>Matthieu K'ang</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>Amarante, diocese de Braga</t>
-        </is>
-      </c>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>16110000</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -14514,28 +14506,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G423" t="inlineStr"/>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>depois de libertado da escravatura</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>deh-matthieu-kang</t>
+          <t>deh-michel-pernet</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Matthieu K'ang</t>
+          <t>Michel Pernet</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr"/>
+          <t>França</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Boulogne-sur-mer</t>
+        </is>
+      </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>16891114</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -14543,36 +14543,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G424" t="inlineStr">
-        <is>
-          <t>depois de libertado da escravatura</t>
-        </is>
-      </c>
+      <c r="G424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>deh-michel-pernet</t>
+          <t>deh-michele-ruggiere-ref2</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Michel Pernet</t>
+          <t>Michael Rogerius</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Boulogne-sur-mer</t>
+          <t>Capua</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>16891114</t>
+          <t>15720000</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -14585,27 +14581,27 @@
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>deh-michele-ruggiere-ref2</t>
+          <t>deh-miguel-barbosa</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Michael Rogerius</t>
+          <t>Miguel Barbosa</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Capua</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>15720000</t>
+          <t>16350000</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -14618,27 +14614,27 @@
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-barbosa</t>
+          <t>deh-miguel-rodrigues</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Miguel Barbosa</t>
+          <t>Miguel Rodrigues</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>16350000</t>
+          <t>16020000</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -14651,27 +14647,27 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-rodrigues</t>
+          <t>deh-miguel-soares</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Miguel Rodrigues</t>
+          <t>Miguel Soares</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Santarém</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>16020000</t>
+          <t>15780000</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -14684,27 +14680,27 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-soares</t>
+          <t>deh-niccolo-gianpriamo</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Miguel Soares</t>
+          <t>Niccolò Gianpriamo</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Santarém</t>
+          <t>Aversa, Itália</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>15780000</t>
+          <t>17020721</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -14717,27 +14713,27 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>deh-niccolo-gianpriamo</t>
+          <t>deh-nicolas-dufour</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Niccolò Gianpriamo</t>
+          <t>Nicolas Dufour</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Holanda</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Aversa, Itália</t>
+          <t>Sluys, Holanda</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>17020721</t>
+          <t>16801002</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -14750,27 +14746,27 @@
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolas-dufour</t>
+          <t>deh-nicolas-zarate</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Nicolas Dufour</t>
+          <t>Nicolás Zárate</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Holanda</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Sluys, Holanda</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>16801002</t>
+          <t>16920303</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -14783,27 +14779,27 @@
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolas-zarate</t>
+          <t>deh-nicolau-de-faria</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Nicolás Zárate</t>
+          <t>Nicolau de Faria</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>16920303</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -14816,27 +14812,27 @@
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolau-de-faria</t>
+          <t>deh-nikolaus-fiva</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Nicolau de Faria</t>
+          <t>Nikolaus Fiva</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Friburgo, Suíça</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>16280320</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -14849,27 +14845,27 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>deh-nikolaus-fiva</t>
+          <t>deh-norbert-korsak</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Nikolaus Fiva</t>
+          <t>Norbert Korsak</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Polónia</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Friburgo, Suíça</t>
+          <t>Polotsk, Bielorrússia</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>16280320</t>
+          <t>17880828</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -14882,27 +14878,27 @@
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>deh-norbert-korsak</t>
+          <t>deh-onofrio-villiani</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Norbert Korsak</t>
+          <t>Onofrio Villiani</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Polónia</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Polotsk, Bielorrússia</t>
+          <t>Faenza</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>17880828</t>
+          <t>17311016</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -14915,12 +14911,12 @@
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>deh-onofrio-villiani</t>
+          <t>deh-pallavicini</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Onofrio Villiani</t>
+          <t>Pallavicini</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -14930,12 +14926,12 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Faenza</t>
+          <t>Ceva, Cuneo</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>17311016</t>
+          <t>16761227</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -14948,12 +14944,12 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>deh-pallavicini</t>
+          <t>deh-paolo-agostino-amoretti</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Pallavicini</t>
+          <t>Paolo-Agostino Amoretti</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -14963,12 +14959,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Ceva, Cuneo</t>
+          <t>San Remo</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>16761227</t>
+          <t>17581126</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -14981,12 +14977,12 @@
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>deh-paolo-agostino-amoretti</t>
+          <t>deh-paolo-cavallina</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Paolo-Agostino Amoretti</t>
+          <t>Paolo Cavallina</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -14996,12 +14992,12 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>San Remo</t>
+          <t>Bolonha</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>17581126</t>
+          <t>16041012</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -15014,27 +15010,27 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>deh-paolo-cavallina</t>
+          <t>deh-pascoal-castangus</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Paolo Cavallina</t>
+          <t>Pascoal Castangus</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Bolonha</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>16041012</t>
+          <t>15850000</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -15047,12 +15043,12 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>deh-pascoal-castangus</t>
+          <t>deh-pascoal-fernandes-fan</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Pascoal Castangus</t>
+          <t>Pascoal Fernandes Fan</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15067,7 +15063,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>15850000</t>
+          <t>16340000</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -15080,12 +15076,12 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>deh-pascoal-fernandes-fan</t>
+          <t>deh-pascoal-mendes-kieou</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Pascoal Fernandes Fan</t>
+          <t>Pascoal Mendes K'ieou</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15100,7 +15096,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>16340000</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -15108,32 +15104,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G441" t="inlineStr"/>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "catequista"}}</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>deh-pascoal-mendes-kieou</t>
+          <t>deh-patrice-comilh</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Pascoal Mendes K'ieou</t>
+          <t>Patrice Comilh</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16731119</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -15143,34 +15143,34 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "catequista"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 16730930"}}</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>deh-patrice-comilh</t>
+          <t>deh-paulo-de-campos</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Patrice Comilh</t>
+          <t>Paulo de Campos</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Bobadela, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>16731119</t>
+          <t>17370502</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -15178,36 +15178,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16730930"}}</t>
-        </is>
-      </c>
+      <c r="G443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>deh-paulo-de-campos</t>
+          <t>deh-pedro-da-cruz</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Paulo de Campos</t>
+          <t>Pedro da Cruz</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Bobadela, diocese de Coimbra</t>
+          <t>Nagasaki</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>17370502</t>
+          <t>16220000</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -15220,27 +15216,27 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-da-cruz</t>
+          <t>deh-pedro-de-figueiredo-ii</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Pedro da Cruz</t>
+          <t>Pedro de Figueiredo</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Nagasaki</t>
+          <t>Pombal</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>16220000</t>
+          <t>17160313</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -15248,17 +15244,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G445" t="inlineStr"/>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "no mar, pela data de embarque seria em Lisboa?", "original": "in mari"}}</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-figueiredo-ii</t>
+          <t>deh-pedro-de-francisco</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Pedro de Figueiredo</t>
+          <t>Pedro de Francisco</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15268,12 +15268,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Pombal</t>
+          <t>Covilhã, diocese da Guarda</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>17160313</t>
+          <t>15880000</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -15283,34 +15283,34 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "no mar, pela data de embarque seria em Lisboa?", "original": "in mari"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 1581 segundo Wicki"}}</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-francisco</t>
+          <t>deh-pedro-de-francisco-ref1</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Pedro de Francisco</t>
+          <t>Pedro de Fernandes</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Covilhã, diocese da Guarda</t>
+          <t>Mala, Espanha</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>15880000</t>
+          <t>16260000</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -15318,36 +15318,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1581 segundo Wicki"}}</t>
-        </is>
-      </c>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-francisco-ref1</t>
+          <t>deh-pedro-de-francisco-ref2</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Pedro de Fernandes</t>
+          <t>Pero Francisco</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Mala, Espanha</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>16260000</t>
+          <t>15730000</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -15360,12 +15356,12 @@
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-francisco-ref2</t>
+          <t>deh-pedro-de-lis</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Pero Francisco</t>
+          <t>Pedro de Lis</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15375,12 +15371,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>15730000</t>
+          <t>16490815</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -15393,27 +15389,27 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-lis</t>
+          <t>deh-pedro-marques-junior</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Pedro de Lis</t>
+          <t>Pedro Marques, júnior</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Nagasaki</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>16490815</t>
+          <t>16310000</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -15426,27 +15422,27 @@
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-marques-junior</t>
+          <t>deh-pedro-ribeiro</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Pedro Marques, júnior</t>
+          <t>Pedro Ribeiro</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Nagasaki</t>
+          <t>Portalegre</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>16310000</t>
+          <t>15880000</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -15459,12 +15455,12 @@
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-ribeiro</t>
+          <t>deh-pedro-zuzarte</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Pedro Ribeiro</t>
+          <t>Pedro Zuzarte</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15474,12 +15470,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Portalegre</t>
+          <t>Loures, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>15880000</t>
+          <t>16350000</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -15487,32 +15483,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr"/>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16320000"}}</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-zuzarte</t>
+          <t>deh-pero-da-cruz</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Pedro Zuzarte</t>
+          <t>Pero da Cruz</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Loures, diocese de Lisboa</t>
+          <t>Segóvia</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>16350000</t>
+          <t>15540000</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -15520,36 +15520,28 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16320000"}}</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>deh-pero-da-cruz</t>
+          <t>deh-pero-da-cruz-ref3</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Pero da Cruz</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Espanha</t>
-        </is>
-      </c>
+          <t>Pedro de la Cruz</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Segóvia</t>
+          <t>Córdova</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>15540000</t>
+          <t>15560301</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -15557,28 +15549,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G454" t="inlineStr"/>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "faz as ordens menores em 1561, n\u00e3o chega a padre"}}</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>deh-pero-da-cruz-ref3</t>
+          <t>deh-pero-rodrigues</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Pedro de la Cruz</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr"/>
+          <t>Pero Rodrigues</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Córdova</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>15560301</t>
+          <t>15951004</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -15586,36 +15586,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "faz as ordens menores em 1561, n\u00e3o chega a padre"}}</t>
-        </is>
-      </c>
+      <c r="G455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>deh-pero-rodrigues</t>
+          <t>deh-philibert-geneix</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Pero Rodrigues</t>
+          <t>Philibert Geneix</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Diocese de Clermont-Ferrand</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>15951004</t>
+          <t>16900907</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -15628,27 +15624,27 @@
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>deh-philibert-geneix</t>
+          <t>deh-philipp-sibin</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Philibert Geneix</t>
+          <t>Philipp Sibin</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Diocese de Clermont-Ferrand</t>
+          <t>Nehaus, Westphalia</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>16900907</t>
+          <t>16970510</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -15661,27 +15657,27 @@
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>deh-philipp-sibin</t>
+          <t>deh-philippe-couplet</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Philipp Sibin</t>
+          <t>Philippe Couplet</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Nehaus, Westphalia</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>16970510</t>
+          <t>16401011</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -15694,27 +15690,27 @@
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>deh-philippe-couplet</t>
+          <t>deh-philippe-gonzaga</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Philippe Couplet</t>
+          <t>Philippe Gonzaga</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>16401011</t>
+          <t>17301027</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -15727,12 +15723,12 @@
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>deh-philippe-gonzaga</t>
+          <t>deh-philippe-gonzaga-ref1</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Philippe Gonzaga</t>
+          <t>François Gonzaga</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -15747,7 +15743,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>17301027</t>
+          <t>17340523</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -15760,27 +15756,27 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>deh-philippe-gonzaga-ref1</t>
+          <t>deh-pierre-albier</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>François Gonzaga</t>
+          <t>Pierre Albier</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Limousin</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>17340523</t>
+          <t>16440000</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -15793,12 +15789,12 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-albier</t>
+          <t>deh-pierre-dalbissi</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Pierre Albier</t>
+          <t>Pierre Dalbissi</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -15808,12 +15804,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Limousin</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>16440000</t>
+          <t>16820424</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -15826,12 +15822,12 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-dalbissi</t>
+          <t>deh-pierre-espagnac</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Pierre Dalbissi</t>
+          <t>Pierre Espagnac</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -15841,12 +15837,12 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Béziers</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>16820424</t>
+          <t>16690929</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -15859,12 +15855,12 @@
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-espagnac</t>
+          <t>deh-pierre-faure</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Pierre Espagnac</t>
+          <t>Pierre Faure</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -15874,12 +15870,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Béziers</t>
+          <t>Saint-Céré</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>16690929</t>
+          <t>16920914</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -15892,12 +15888,12 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-faure</t>
+          <t>deh-pierre-francois-daudy</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Pierre Faure</t>
+          <t>Pierre-François Daudy</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -15907,12 +15903,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Saint-Céré</t>
+          <t>Franche-Comté</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>16920914</t>
+          <t>16831026</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -15925,12 +15921,12 @@
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-francois-daudy</t>
+          <t>deh-pierre-frapperie</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Pierre-François Daudy</t>
+          <t>Pierre Frapperie</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -15940,12 +15936,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Franche-Comté</t>
+          <t>Angoulême</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>16831026</t>
+          <t>16861002</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -15958,12 +15954,12 @@
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-frapperie</t>
+          <t>deh-pierre-hebrard</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Pierre Frapperie</t>
+          <t>Pierre Hébrard</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -15973,12 +15969,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Angoulême</t>
+          <t>Diocese de Albi</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>16861002</t>
+          <t>16821014</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -15986,17 +15982,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Toulouse? @wikidata:Q7880"}}</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-hebrard</t>
+          <t>deh-pierre-mauduit</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Pierre Hébrard</t>
+          <t>Pierre Mauduit</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16006,12 +16006,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Diocese de Albi</t>
+          <t>Poitiers</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>16821014</t>
+          <t>16790928</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -16019,21 +16019,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Toulouse? @wikidata:Q7880"}}</t>
-        </is>
-      </c>
+      <c r="G468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-mauduit</t>
+          <t>deh-pierre-peyronenc</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Pierre Mauduit</t>
+          <t>Pierre Peyronenc</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16043,12 +16039,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Poitiers</t>
+          <t>Diocese de Rodez</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>16790928</t>
+          <t>16350829</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -16061,12 +16057,12 @@
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-peyronenc</t>
+          <t>deh-pierre-quenein</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Pierre Peyronenc</t>
+          <t>Pierre Quenein</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16076,12 +16072,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Diocese de Rodez</t>
+          <t>Poitou</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>16350829</t>
+          <t>16760911</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -16094,27 +16090,27 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-quenein</t>
+          <t>deh-pierre-tchen</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Pierre Quenein</t>
+          <t>Pierre T'chen</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Poitou</t>
+          <t>Soochow, Kiang-nan</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>16760911</t>
+          <t>17340803</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -16127,27 +16123,27 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-tchen</t>
+          <t>deh-pierre-vaquier-la-baume</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Pierre T'chen</t>
+          <t>Pierre Vaquier La Baume</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Soochow, Kiang-nan</t>
+          <t>Diocese de Rodez</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>17340803</t>
+          <t>17481005</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -16155,32 +16151,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "em 1758 n\u00e3o era ainda Padre"}}</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-vaquier-la-baume</t>
+          <t>deh-pietro-balemonte</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Pierre Vaquier La Baume</t>
+          <t>Pietro Belmonte</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Diocese de Rodez</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>17481005</t>
+          <t>16731104</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -16188,21 +16188,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "em 1758 n\u00e3o era ainda Padre"}}</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>deh-pietro-balemonte</t>
+          <t>deh-pietro-francesco-capacci</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Pietro Belmonte</t>
+          <t>Pietro Francesco Capacci</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16212,12 +16208,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Siena</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>16731104</t>
+          <t>16721121</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -16230,12 +16226,12 @@
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>deh-pietro-francesco-capacci</t>
+          <t>deh-pietro-paolo-arrigoni</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Pietro Francesco Capacci</t>
+          <t>Pietro Paolo Arrigoni</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16245,12 +16241,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Siena</t>
+          <t>Milão</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>16721121</t>
+          <t>16411217</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -16263,27 +16259,27 @@
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>deh-pietro-paolo-arrigoni</t>
+          <t>deh-policarpo-de-sousa</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Pietro Paolo Arrigoni</t>
+          <t>Policarpo de Sousa</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Milão</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>16411217</t>
+          <t>17121031</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -16296,27 +16292,27 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>deh-policarpo-de-sousa</t>
+          <t>deh-prospero-intorcetta</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Policarpo de Sousa</t>
+          <t>Prospero Intorcetta</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Piazza Armerina, Sicília</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>17121031</t>
+          <t>16421231</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -16329,27 +16325,27 @@
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>deh-prospero-intorcetta</t>
+          <t>deh-prost-ref2</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Prospero Intorcetta</t>
+          <t>Antoine Léopold Prost</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Fraça</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Piazza Armerina, Sicília</t>
+          <t>Besançon</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>16421231</t>
+          <t>17040000</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -16362,27 +16358,27 @@
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>deh-prost-ref2</t>
+          <t>deh-quentin-cousin</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Antoine Léopold Prost</t>
+          <t>Quentin Cousin</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Fraça</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Besançon</t>
+          <t>Tournai</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>17040000</t>
+          <t>16040521</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -16395,27 +16391,23 @@
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>deh-quentin-cousin</t>
+          <t>deh-rui-barreto</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Quentin Cousin</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>Bélgica</t>
-        </is>
-      </c>
+          <t>Rui Barreto</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Tournai</t>
+          <t>Mora, diocese de Évora</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>16040521</t>
+          <t>15681228</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -16423,28 +16415,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 15721228"}}</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>deh-rui-barreto</t>
+          <t>deh-sebastian-zwerger</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Rui Barreto</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr"/>
+          <t>Sebastian Zwerger</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Alemanha</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Mora, diocese de Évora</t>
+          <t>Munique</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>15681228</t>
+          <t>17280913</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -16452,36 +16452,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 15721228"}}</t>
-        </is>
-      </c>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastian-zwerger</t>
+          <t>deh-sebastiao-correa-i</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Sebastian Zwerger</t>
+          <t>Sebastião Correa</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Munique</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>17280913</t>
+          <t>16570000</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -16489,32 +16485,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-correa-i</t>
+          <t>deh-sebastiao-da-maia</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Sebastião Correa</t>
+          <t>Sebastião da Maia</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>16570000</t>
+          <t>16110000</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -16522,36 +16522,28 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-da-maia</t>
+          <t>deh-sebastiao-fernandes-ref1</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Sebastião da Maia</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Sebastião Fernandes</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>S. Cosme, diocese do Porto</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>16110000</t>
+          <t>15660000</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -16564,7 +16556,7 @@
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-fernandes-ref1</t>
+          <t>deh-sebastiao-fernandes-ref2</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -16575,12 +16567,12 @@
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
-          <t>S. Cosme, diocese do Porto</t>
+          <t>Cernache, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>15660000</t>
+          <t>15560000</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -16593,23 +16585,27 @@
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-fernandes-ref2</t>
+          <t>deh-sebastiao-vieira</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Sebastião Fernandes</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr"/>
+          <t>Sebastião Vieira</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Cernache, diocese de Coimbra</t>
+          <t>Castro Daire, diocese de Lamego</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>15560000</t>
+          <t>15910203</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -16622,12 +16618,12 @@
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-vieira</t>
+          <t>deh-silvestre-furtado</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Sebastião Vieira</t>
+          <t>Silvestre Furtado</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16637,12 +16633,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Castro Daire, diocese de Lamego</t>
+          <t>Lamego</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>15910203</t>
+          <t>16881128</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -16655,27 +16651,23 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>deh-silvestre-furtado</t>
+          <t>deh-simao-antunes-ref2</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Silvestre Furtado</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Simón Antunez</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Lamego</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>16881128</t>
+          <t>15670000</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -16688,23 +16680,27 @@
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-antunes-ref2</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Simón Antunez</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr"/>
+          <t>Simão da Cunha</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>15670000</t>
+          <t>16060113</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -16717,12 +16713,12 @@
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-simao-de-almeida</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Simão de Almeida</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -16732,12 +16728,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Viseu</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>16060113</t>
+          <t>17460318</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -16750,7 +16746,7 @@
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-de-almeida</t>
+          <t>deh-simao-de-almeida-ref1</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -16765,12 +16761,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Viseu</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>17460318</t>
+          <t>17211207</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -16783,12 +16779,12 @@
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-de-almeida-ref1</t>
+          <t>deh-simao-pinto</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Simão de Almeida</t>
+          <t>Simão Pinto</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -16798,12 +16794,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>São Pedro do Sul, diocese de Viseu</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>17211207</t>
+          <t>16750000</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -16816,12 +16812,12 @@
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-pinto</t>
+          <t>deh-simao-rodrigues</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Simão Pinto</t>
+          <t>Simão Rodrigues</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -16831,12 +16827,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>São Pedro do Sul, diocese de Viseu</t>
+          <t>Évora</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>16750000</t>
+          <t>16591015</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -16849,27 +16845,27 @@
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-rodrigues</t>
+          <t>deh-simeao-soares</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Simão Rodrigues</t>
+          <t>Simeão Soares</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Évora</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>16591015</t>
+          <t>16570000</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -16882,12 +16878,12 @@
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>deh-simeao-soares</t>
+          <t>deh-stanislas-monteiro</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Simeão Soares</t>
+          <t>Stanislas Monteiro</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -16897,12 +16893,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>T'ai-yuan fou, Shansi</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>16570000</t>
+          <t>17380713</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -16915,7 +16911,7 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>deh-stanislas-monteiro</t>
+          <t>deh-stanislas-monteiro-ref1</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -16925,14 +16921,10 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>T'ai-yuan fou, Shansi</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
           <t>17380713</t>
@@ -16948,23 +16940,27 @@
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>deh-stanislas-monteiro-ref1</t>
+          <t>deh-symphorien-duarte</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Stanislas Monteiro</t>
+          <t>Symphorien Duarte</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr"/>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Hangchow, Chekiang</t>
+        </is>
+      </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>17380713</t>
+          <t>17490201</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -16972,32 +16968,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17490202"}}</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>deh-symphorien-duarte</t>
+          <t>deh-teotonio-leitao</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Symphorien Duarte</t>
+          <t>Teotónio Leitão</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>Hangchow, Chekiang</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>17490201</t>
+          <t>16990000</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -17005,32 +17001,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17490202"}}</t>
-        </is>
-      </c>
+      <c r="G498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>deh-teotonio-leitao</t>
+          <t>deh-thaddee-xavier</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Teotónio Leitão</t>
+          <t>Thaddée Xavier</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr"/>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>16990000</t>
+          <t>17401101</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -17043,12 +17039,12 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>deh-thaddee-xavier</t>
+          <t>deh-thomas-ignace-kiang</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Thaddée Xavier</t>
+          <t>Thomas Ignace Kiang</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17058,12 +17054,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>17401101</t>
+          <t>16900903</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -17071,17 +17067,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G500" t="inlineStr"/>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 30 ou 29"}}</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>deh-thomas-ignace-kiang</t>
+          <t>deh-thomas-soares</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Thomas Ignace Kiang</t>
+          <t>Thomas Soares</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17091,12 +17091,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>16900903</t>
+          <t>17401031</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -17106,34 +17106,34 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 30 ou 29"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 1 de novembro"}}</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>deh-thomas-soares</t>
+          <t>deh-tome-da-silva</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Thomas Soares</t>
+          <t>Tomé da Silva</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Sousa, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>17401031</t>
+          <t>17460719</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -17143,34 +17143,34 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 1 de novembro"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 17480000"}}</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-da-silva</t>
+          <t>deh-tommaso-valguarnera</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Tomé da Silva</t>
+          <t>Tommaso Valguarnera</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Sousa, diocese de Coimbra</t>
+          <t>Assoro, Sicília</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>17460719</t>
+          <t>16270306</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -17178,36 +17178,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17480000"}}</t>
-        </is>
-      </c>
+      <c r="G503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>deh-tommaso-valguarnera</t>
+          <t>deh-valentim-de-carvalho</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tommaso Valguarnera</t>
+          <t>Valentim de Carvalho</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Assoro, Sicília</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>16270306</t>
+          <t>15761204</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -17220,27 +17216,27 @@
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>deh-valentim-de-carvalho</t>
+          <t>deh-valentim-stansel</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Valentim de Carvalho</t>
+          <t>Valentim Stansel</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Olomouc</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>15761204</t>
+          <t>16371001</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -17253,27 +17249,27 @@
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>deh-valentim-stansel</t>
+          <t>deh-valentin-chalier</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Valentim Stansel</t>
+          <t>Valentin Chalier</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Olomouc</t>
+          <t>Oulx, diocese de Turim</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>16371001</t>
+          <t>17150909</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -17286,12 +17282,12 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>deh-valentin-chalier</t>
+          <t>deh-vautrin-baudre</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Valentin Chalier</t>
+          <t>Vautrin Baudré</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17301,12 +17297,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Oulx, diocese de Turim</t>
+          <t>Saint-Mihiel, Meuse, diocese de Verdun</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>17150909</t>
+          <t>16861017</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -17319,12 +17315,12 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>deh-vautrin-baudre</t>
+          <t>deh-victor-agricola-poisson</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Vautrin Baudré</t>
+          <t>Victor-Agricola Poisson</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17334,12 +17330,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Saint-Mihiel, Meuse, diocese de Verdun</t>
+          <t>Billom, diocese de Clermont @wikidata:Q246257</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>16861017</t>
+          <t>17451014</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -17352,27 +17348,27 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>deh-victor-agricola-poisson</t>
+          <t>deh-vincenzo-carruba</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Victor-Agricola Poisson</t>
+          <t>Vincenzo Carruba</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Billom, diocese de Clermont @wikidata:Q246257</t>
+          <t>Palermo, Sicília</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>17451014</t>
+          <t>15920000</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -17385,27 +17381,27 @@
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>deh-vincenzo-carruba</t>
+          <t>deh-walter-ignazio-de-monte</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Vincenzo Carruba</t>
+          <t>Walter Ignazio de Monte</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Lucerne</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>15920000</t>
+          <t>16280907</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -17418,27 +17414,27 @@
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>deh-walter-ignazio-de-monte</t>
+          <t>deh-xavier-duarte</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Walter Ignazio de Monte</t>
+          <t>Xavier Duarte</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Lucerne</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>16280907</t>
+          <t>17361103</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -17446,17 +17442,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17361104"}}</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>deh-xavier-duarte</t>
+          <t>joao-cardoso</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Xavier Duarte</t>
+          <t>João Cardoso</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17466,12 +17466,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Setúbal</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>17361103</t>
+          <t>16340000</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -17479,44 +17479,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17361104"}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="inlineStr">
-        <is>
-          <t>joao-cardoso</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>João Cardoso</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr">
-        <is>
-          <t>Setúbal</t>
-        </is>
-      </c>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>16340000</t>
-        </is>
-      </c>
-      <c r="F513" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G513" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notebooks/jesuitas-entrada-desc.xlsx
+++ b/notebooks/jesuitas-entrada-desc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:G408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5577,12 +5577,12 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-da-fonseca</t>
+          <t>deh-goncalo-de-oliveira</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Gonçalo da Fonseca</t>
+          <t>Gonçalo de Oliveira</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5592,12 +5592,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Vila Real, diocese de Braga</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>16340000</t>
+          <t>16370000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5610,12 +5610,12 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-de-oliveira</t>
+          <t>deh-goncalo-dias</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Gonçalo de Oliveira</t>
+          <t>Gonçalo Dias</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Vila Real, diocese de Braga</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>16370000</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5643,12 +5643,12 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-dias</t>
+          <t>deh-goncalo-martins</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Gonçalo Dias</t>
+          <t>Gonçalo Martins</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5658,12 +5658,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Vila Real, diocese de Braga</t>
+          <t>Poiares (Santiago)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16200000</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5676,27 +5676,27 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-martins</t>
+          <t>deh-gonzalo-de-velmonte</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Gonçalo Martins</t>
+          <t>Gonzalo de Velmonte</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Poiares (Santiago)</t>
+          <t>Moguer</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>16200000</t>
+          <t>15771218</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5709,27 +5709,27 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>deh-gonzalo-de-velmonte</t>
+          <t>deh-gregorio-seco</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Gonzalo de Velmonte</t>
+          <t>Gregório Seco</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Moguer</t>
+          <t>Miranda do Corvo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>15771218</t>
+          <t>17400000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5742,27 +5742,27 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>deh-gregorio-seco</t>
+          <t>deh-guillaume-melin</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Gregório Seco</t>
+          <t>Guillaume Melin</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Miranda do Corvo, diocese de Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>17400000</t>
+          <t>16760000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5775,27 +5775,27 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>deh-guillaume-melin</t>
+          <t>deh-guillaume-van-der-beken</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Guillaume Melin</t>
+          <t>Guillaume Van der Beken</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Bruxelas</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>16760000</t>
+          <t>16771001</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5808,27 +5808,27 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>deh-guillaume-van-der-beken</t>
+          <t>deh-heinrich-roth</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Guillaume Van der Beken</t>
+          <t>Heinrich Roth</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Bruxelas</t>
+          <t>Dillingen</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>16771001</t>
+          <t>16391025</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5841,27 +5841,27 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>deh-heinrich-roth</t>
+          <t>deh-henri-xavier</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Heinrich Roth</t>
+          <t>Henri Xavier</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Dillingen</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>16391025</t>
+          <t>16320000</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5869,22 +5869,26 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"original": "gallo-belge"}}</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>deh-henri-xavier</t>
+          <t>deh-herman-scolt</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Henri Xavier</t>
+          <t>Herman Scolt</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>?</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5894,7 +5898,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>16320000</t>
+          <t>17281228</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5902,36 +5906,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"original": "gallo-belge"}}</t>
-        </is>
-      </c>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>deh-herman-scolt</t>
+          <t>deh-hubert-cousin-de-mericourt</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Herman Scolt</t>
+          <t>Hubert Cousin de Méricourt</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Montdidier</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>17281228</t>
+          <t>17540108</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5939,17 +5939,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Fran\u00e7a? @wikidata:Q142"}}</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>deh-hubert-cousin-de-mericourt</t>
+          <t>deh-humbert-augery</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hubert Cousin de Méricourt</t>
+          <t>Humbert Augery</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5959,12 +5963,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Montdidier</t>
+          <t>Vienne, Dauphiné</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>17540108</t>
+          <t>16340912</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5972,36 +5976,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Fran\u00e7a? @wikidata:Q142"}}</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>deh-humbert-augery</t>
+          <t>deh-humbert-saint-laurent</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Humbert Augery</t>
+          <t>Humbert Saint-Laurent</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Flandres</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Vienne, Dauphiné</t>
+          <t>Douai</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>16340912</t>
+          <t>16051229</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6014,27 +6014,27 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>deh-humbert-saint-laurent</t>
+          <t>deh-hyacinthe-paul-lieou-junior</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Humbert Saint-Laurent</t>
+          <t>Hyacinthe Paul Lieou, júnior</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Flandres</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Douai</t>
+          <t>Hukwang</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>16051229</t>
+          <t>17630930</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6042,17 +6042,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "vice prov\u00edncia de Portugal"}}</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>deh-hyacinthe-paul-lieou-junior</t>
+          <t>deh-ignace</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Hyacinthe Paul Lieou, júnior</t>
+          <t>Ignace</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6062,12 +6066,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Hukwang</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>17630930</t>
+          <t>1620000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6077,34 +6081,34 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "vice prov\u00edncia de Portugal"}}</t>
+          <t>extra_info: {"date": {"comment": "admitido na Companhia depois de torturado pela f\u00e9?"}}</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>deh-ignace</t>
+          <t>deh-ignace-baudet-de-beauregard</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ignace</t>
+          <t>Ignace Baudet de Beauregard</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>St-Hugues-St-Jean de Grenoble</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1620000</t>
+          <t>16350000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6112,36 +6116,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "admitido na Companhia depois de torturado pela f\u00e9?"}}</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>deh-ignace-baudet-de-beauregard</t>
+          <t>deh-ignace-lagot</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ignace Baudet de Beauregard</t>
+          <t>Ignace Lagot</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Flandres</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>St-Hugues-St-Jean de Grenoble</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>16350000</t>
+          <t>16180000</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6154,27 +6154,27 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>deh-ignace-lagot</t>
+          <t>deh-ignaz-sichelbarth</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ignace Lagot</t>
+          <t>Ignaz Sichelbarth</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Flandres</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Neudeck, Boémia</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>16180000</t>
+          <t>17361020</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6187,27 +6187,27 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>deh-ignaz-sichelbarth</t>
+          <t>deh-inacio-da-costa</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ignaz Sichelbarth</t>
+          <t>Inácio da Costa</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Neudeck, Boémia</t>
+          <t>Ilha do Faial, Açores</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>17361020</t>
+          <t>16170000</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6220,12 +6220,12 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-da-costa</t>
+          <t>deh-inacio-francisco</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Inácio da Costa</t>
+          <t>Inácio Francisco</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6235,12 +6235,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Ilha do Faial, Açores</t>
+          <t>Conraria, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>16170000</t>
+          <t>17240824</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6253,12 +6253,12 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-francisco</t>
+          <t>deh-inacio-lobo</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Inácio Francisco</t>
+          <t>Inácio Lobo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Conraria, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>17240824</t>
+          <t>16240000</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>16240000</t>
+          <t>16350000</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6319,12 +6319,12 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-lobo</t>
+          <t>deh-inacio-lopes</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Inácio Lobo</t>
+          <t>Inácio Lopes</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>16350000</t>
+          <t>16810000</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6352,27 +6352,27 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-lopes</t>
+          <t>deh-inacio-sanga</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Inácio Lopes</t>
+          <t>Inácio Sanga</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>16810000</t>
+          <t>16520000</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6385,27 +6385,27 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-sanga</t>
+          <t>deh-jacques-barthe</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Inácio Sanga</t>
+          <t>Jacques Barthe</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>?</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>16520000</t>
+          <t>16780000</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6418,27 +6418,27 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>deh-jacques-barthe</t>
+          <t>deh-jacques-brocard</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Jacques Barthe</t>
+          <t>Jacques Brocard</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Chatelblanc, Doubs, diocese de Besançon</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>16950325</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6451,12 +6451,12 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>deh-jacques-brocard</t>
+          <t>deh-jacques-de-premilly</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Jacques Brocard</t>
+          <t>Jacques de Prémilly</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6466,12 +6466,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Chatelblanc, Doubs, diocese de Besançon</t>
+          <t>Poitou</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>16950325</t>
+          <t>16910906</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6484,12 +6484,12 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>deh-jacques-de-premilly</t>
+          <t>deh-jacques-duchatz</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Jacques de Prémilly</t>
+          <t>Jacques Duchatz</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6499,12 +6499,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Poitou</t>
+          <t>Sens</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>16910906</t>
+          <t>16680922</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6517,12 +6517,12 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>deh-jacques-duchatz</t>
+          <t>deh-jacques-villotte</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Jacques Duchatz</t>
+          <t>Jacques Villotte</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6532,12 +6532,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Sens</t>
+          <t>Bar-le-Duc, diocese de Toul</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>16680922</t>
+          <t>16731002</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6550,27 +6550,27 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>deh-jacques-villotte</t>
+          <t>deh-jakob-dimer</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Jacques Villotte</t>
+          <t>Jakob Dimer</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Bar-le-Duc, diocese de Toul</t>
+          <t>Hötting-Innsbruck</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>16731002</t>
+          <t>16460819</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6583,12 +6583,12 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>deh-jakob-dimer</t>
+          <t>deh-jakob-moers</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Jakob Dimer</t>
+          <t>Jakob Möers</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6598,12 +6598,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hötting-Innsbruck</t>
+          <t>Colónia</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>16460819</t>
+          <t>16740425</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6616,27 +6616,27 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>deh-jakob-moers</t>
+          <t>deh-jean-alexis-de-gollet</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Jakob Möers</t>
+          <t>Jean-Alexis de Gollet</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Colónia</t>
+          <t>Saint-Malo</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>16740425</t>
+          <t>16840915</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6649,12 +6649,12 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-alexis-de-gollet</t>
+          <t>deh-jean-baborier</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Jean-Alexis de Gollet</t>
+          <t>Jean Baborier</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Saint-Malo</t>
+          <t>Diocese de Vienne</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>16840915</t>
+          <t>16960905</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6677,17 +6677,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16960918"}}</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-baborier</t>
+          <t>deh-jean-baptiste-batailhe</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Jean Baborier</t>
+          <t>Jean-Baptiste Batailhé</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6697,12 +6701,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Diocese de Vienne</t>
+          <t>Albi</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>16960905</t>
+          <t>17130905</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6710,36 +6714,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16960918"}}</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-baptiste-batailhe</t>
+          <t>deh-jean-baptiste-charandy</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Jean-Baptiste Batailhé</t>
+          <t>Jean-Baptiste Charandy</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Albi</t>
+          <t>Solothurn, Suíça</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>17130905</t>
+          <t>16800708</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6752,27 +6752,27 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-baptiste-charandy</t>
+          <t>deh-jean-baptiste-charles-jacques</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Jean-Baptiste Charandy</t>
+          <t>Jean-Baptiste Charles Jacques</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Solothurn, Suíça</t>
+          <t>Vesoul, Franche-Comté</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>16800708</t>
+          <t>17041207</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6785,12 +6785,12 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-baptiste-charles-jacques</t>
+          <t>deh-jean-baptiste-gentil-de-brassaud</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jean-Baptiste Charles Jacques</t>
+          <t>Jean-Baptiste Gentil de Brassaud</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6800,12 +6800,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Vesoul, Franche-Comté</t>
+          <t>Xanto, Saintonge</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>17041207</t>
+          <t>17431220</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6818,12 +6818,12 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-baptiste-gentil-de-brassaud</t>
+          <t>deh-jean-brandi</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Jean-Baptiste Gentil de Brassaud</t>
+          <t>Jean Brandi</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6833,12 +6833,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Xanto, Saintonge</t>
+          <t>Limousin</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>17431220</t>
+          <t>16320611</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6851,12 +6851,12 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-brandi</t>
+          <t>deh-jean-charles-etienne-froissard-de-broissia</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Jean Brandi</t>
+          <t>Jean-Charles Etienne Froissard de Broissia</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Limousin</t>
+          <t>Dole, Jura</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>16320611</t>
+          <t>16820424</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6884,12 +6884,12 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-charles-etienne-froissard-de-broissia</t>
+          <t>deh-jean-claude-beguin</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Jean-Charles Etienne Froissard de Broissia</t>
+          <t>Jean Claude Béguin</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6899,12 +6899,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Dole, Jura</t>
+          <t>Marcy-sous-Marle, diocese de Laon</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>16820424</t>
+          <t>17530121</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6917,27 +6917,27 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-claude-beguin</t>
+          <t>deh-jean-de-celle</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Jean Claude Béguin</t>
+          <t>Jean de Celle</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Marcy-sous-Marle, diocese de Laon</t>
+          <t>Huy, Bélgica</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>17530121</t>
+          <t>16051006</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6950,27 +6950,27 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-de-celle</t>
+          <t>deh-jean-de-ressins</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Jean de Celle</t>
+          <t>Jean de Ressins</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Huy, Bélgica</t>
+          <t>Diocese de Lyon</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>16051006</t>
+          <t>16670920</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6978,17 +6978,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Lyon? @wikidata:Q456"}}</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-de-ressins</t>
+          <t>deh-jean-domenge</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Jean de Ressins</t>
+          <t>Jean Domenge</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6998,12 +7002,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Diocese de Lyon</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>16670920</t>
+          <t>16811030</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7011,21 +7015,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Lyon? @wikidata:Q456"}}</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-domenge</t>
+          <t>deh-jean-franco</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Jean Domenge</t>
+          <t>Jean Franco</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Bretanha</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>16811030</t>
+          <t>16550000</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7053,12 +7053,12 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-franco</t>
+          <t>deh-jean-francois-legalais</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jean Franco</t>
+          <t>Jean-François Légalais</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>16550000</t>
+          <t>17310207</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7086,12 +7086,12 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-francois-legalais</t>
+          <t>deh-jean-francois-pelisson</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Jean-François Légalais</t>
+          <t>Jean-François Pélisson</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Bretanha</t>
+          <t>Gaillac</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>17310207</t>
+          <t>16730909</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7119,27 +7119,27 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-francois-pelisson</t>
+          <t>deh-jean-francois-xavier-regis-tchen</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Jean-François Pélisson</t>
+          <t>Jean-François Xavier Régis Tch'en</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Gaillac</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>16730909</t>
+          <t>17320907</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7147,32 +7147,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17321231"}}</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-francois-xavier-regis-tchen</t>
+          <t>deh-jean-matthieu-tournu-ventavon</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Jean-François Xavier Régis Tch'en</t>
+          <t>Jean-Matthieu Tournu Ventavon</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Gap</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>17320907</t>
+          <t>17541122</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7180,21 +7184,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17321231"}}</t>
-        </is>
-      </c>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-matthieu-tournu-ventavon</t>
+          <t>deh-jean-noellas</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Jean-Matthieu Tournu Ventavon</t>
+          <t>Jean Noëllas</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7204,12 +7204,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Gap</t>
+          <t>Clermont-Ferrand</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>17541122</t>
+          <t>16840228</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7222,12 +7222,12 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-noellas</t>
+          <t>deh-jean-philippe-sidoine-de-la-fontaine</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Jean Noëllas</t>
+          <t>Jean-Philippe Sidoine de La Fontaine</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7237,12 +7237,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Clermont-Ferrand</t>
+          <t>Diocese de Liège</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>16840228</t>
+          <t>16850920</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7255,12 +7255,12 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-philippe-sidoine-de-la-fontaine</t>
+          <t>deh-jean-pierre-levert</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Jean-Philippe Sidoine de La Fontaine</t>
+          <t>Jean-Pierre Levert</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7270,12 +7270,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Diocese de Liège</t>
+          <t>Guyenne</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>16850920</t>
+          <t>16630917</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7288,27 +7288,27 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-pierre-levert</t>
+          <t>deh-jean-silva-peng</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Jean-Pierre Levert</t>
+          <t>Jean Silva P'eng</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Guyenne</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>16630917</t>
+          <t>17380713</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7321,27 +7321,27 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-silva-peng</t>
+          <t>deh-jean-simon-bayard</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Jean Silva P'eng</t>
+          <t>Jean-Simon Bayard</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Lescar, Béarn (paróquia de St. Julien de Lescar)</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>17380713</t>
+          <t>16800421</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7349,17 +7349,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16800422"}}</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-simon-bayard</t>
+          <t>deh-jean-sylvain-de-neuvialle</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Jean-Simon Bayard</t>
+          <t>Jean Sylvain de Neuvialle</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7369,12 +7373,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Lescar, Béarn (paróquia de St. Julien de Lescar)</t>
+          <t>França</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>16800421</t>
+          <t>17110926</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7382,21 +7386,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16800422"}}</t>
-        </is>
-      </c>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-sylvain-de-neuvialle</t>
+          <t>deh-jean-testard</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Jean Sylvain de Neuvialle</t>
+          <t>Jean Testard</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Langeac</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>17110926</t>
+          <t>16821220</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7424,12 +7424,12 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-testard</t>
+          <t>deh-jean-valat</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Jean Testard</t>
+          <t>Jean Valat</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Langeac</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>16821220</t>
+          <t>16320422</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7457,27 +7457,27 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>deh-jean-valat</t>
+          <t>deh-jeronimo-rodrigues-junior</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Jean Valat</t>
+          <t>Jerónimo Rodrigues, júnior</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Montemor-o-Novo, diocese de Évora</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>16320422</t>
+          <t>15920000</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7490,12 +7490,12 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>deh-jeronimo-rodrigues-junior</t>
+          <t>deh-jeronimo-rodrigues-senior</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Jerónimo Rodrigues, júnior</t>
+          <t>Jerónimo Rodrigues, sénior</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7505,12 +7505,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Montemor-o-Novo, diocese de Évora</t>
+          <t>Monforte, diocese de Elvas</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>15920000</t>
+          <t>15850000</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7523,27 +7523,27 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>deh-jeronimo-rodrigues-senior</t>
+          <t>deh-jeronimo-sa</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Jerónimo Rodrigues, sénior</t>
+          <t>Jerónimo Sá</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Monforte, diocese de Elvas</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>15850000</t>
+          <t>16820000</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7556,27 +7556,27 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>deh-jeronimo-sa</t>
+          <t>deh-joachim-bouvet</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Jerónimo Sá</t>
+          <t>Joachim Bouvet</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Mans ou Conlie (Sarthe)</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>16820000</t>
+          <t>16731009</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7589,27 +7589,27 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>deh-joachim-bouvet</t>
+          <t>deh-joao-alvares</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Joachim Bouvet</t>
+          <t>João Álvares</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Mans ou Conlie (Sarthe)</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>16731009</t>
+          <t>17180000</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7622,27 +7622,27 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-alvares</t>
+          <t>deh-joao-baptista</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>João Álvares</t>
+          <t>João Baptista</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Bombarral, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>17180000</t>
+          <t>16710320</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>16710320</t>
+          <t>16811112</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7683,17 +7683,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "alternativa"}}</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-baptista</t>
+          <t>deh-joao-belchior-ribeiro</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>João Baptista</t>
+          <t>João Belchior Ribeiro</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7703,12 +7707,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Bombarral, diocese de Lisboa</t>
+          <t>S. Pedro de Tarrados, diocese de Braga</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>16811112</t>
+          <t>16100000</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7716,21 +7720,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "alternativa"}}</t>
-        </is>
-      </c>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-belchior-ribeiro</t>
+          <t>deh-joao-cabral</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>João Belchior Ribeiro</t>
+          <t>João Cabral</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7740,12 +7740,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>S. Pedro de Tarrados, diocese de Braga</t>
+          <t>Celorico da Beira</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>16150613</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7758,12 +7758,12 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-cabral</t>
+          <t>deh-joao-couceiro</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>João Cabral</t>
+          <t>João Couceiro</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7773,12 +7773,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Celorico da Beira</t>
+          <t>Tentúgal, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>16150613</t>
+          <t>16490000</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7791,12 +7791,12 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-couceiro</t>
+          <t>deh-joao-da-fonseca-i</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>João Couceiro</t>
+          <t>João da Fonseca</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7806,12 +7806,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tentúgal, diocese de Coimbra</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>16490000</t>
+          <t>15890000</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7824,7 +7824,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-fonseca-i</t>
+          <t>deh-joao-da-fonseca-ii</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Villacova de Suevo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>15890000</t>
+          <t>17480518</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7857,12 +7857,12 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-fonseca-ii</t>
+          <t>deh-joao-da-veiga</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>João da Fonseca</t>
+          <t>João da Veiga</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7872,12 +7872,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Villacova de Suevo, diocese de Coimbra</t>
+          <t>Verros</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>17480518</t>
+          <t>16140000</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7890,12 +7890,12 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-veiga</t>
+          <t>deh-joao-de-abreu</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>João da Veiga</t>
+          <t>João de Abreu</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7905,12 +7905,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Verros</t>
+          <t>Elvas</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>16140000</t>
+          <t>16480000</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7923,12 +7923,12 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-abreu</t>
+          <t>deh-joao-de-barros</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>João de Abreu</t>
+          <t>João de Barros</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7938,12 +7938,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Elvas</t>
+          <t>Gradil, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>16480000</t>
+          <t>17240402</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7956,12 +7956,12 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-barros</t>
+          <t>deh-joao-de-figueiredo</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>João de Barros</t>
+          <t>João de Figueiredo</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Gradil, diocese de Lisboa</t>
+          <t>Viana</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>17240402</t>
+          <t>16500000</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7989,12 +7989,12 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-figueiredo</t>
+          <t>deh-joao-de-lemos</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>João de Figueiredo</t>
+          <t>João de Lemos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Viana</t>
+          <t>Quintela, diocese de Lamego</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>16500000</t>
+          <t>17260602</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -8022,12 +8022,12 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-lemos</t>
+          <t>deh-joao-de-loureiro</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>João de Lemos</t>
+          <t>João de Loureiro</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8037,12 +8037,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Quintela, diocese de Lamego</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>17260602</t>
+          <t>17320503</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -8055,12 +8055,12 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-loureiro</t>
+          <t>deh-joao-de-seixas</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>João de Loureiro</t>
+          <t>João de Seixas</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>17320503</t>
+          <t>17271125</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -8083,32 +8083,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 1729"}}</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-seixas</t>
+          <t>deh-joao-de-sousa</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>João de Seixas</t>
+          <t>João de Sousa</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>17271125</t>
+          <t>17491207</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8116,36 +8120,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1729"}}</t>
-        </is>
-      </c>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-de-sousa</t>
+          <t>deh-joao-duarte</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>João de Sousa</t>
+          <t>João Duarte</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>17491207</t>
+          <t>16900717</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -8153,17 +8153,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 1689"}}</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-duarte</t>
+          <t>deh-joao-fernandes-fou</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>João Duarte</t>
+          <t>João Fernandes Fou</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8173,12 +8177,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Ilha da Madeira</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>16900717</t>
+          <t>16630000</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8186,21 +8190,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1689"}}</t>
-        </is>
-      </c>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-fernandes-fou</t>
+          <t>deh-joao-ferreira</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>João Fernandes Fou</t>
+          <t>João Ferreira</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8210,12 +8210,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Ilha da Madeira</t>
+          <t>Funchal, ilha da Madeira</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>16630000</t>
+          <t>16140000</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -8228,12 +8228,12 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-ferreira</t>
+          <t>deh-joao-francisco-cardoso</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>João Ferreira</t>
+          <t>João Francisco Cardoso</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8243,12 +8243,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Funchal, ilha da Madeira</t>
+          <t>Porto de Mós, diocese de Leiria</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>16140000</t>
+          <t>16921222</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8261,12 +8261,12 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-francisco-cardoso</t>
+          <t>deh-joao-lopes</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>João Francisco Cardoso</t>
+          <t>João Lopes</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Porto de Mós, diocese de Leiria</t>
+          <t>Sabugal, diocese de Lamego</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>16921222</t>
+          <t>16880316</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -8294,12 +8294,12 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-lopes</t>
+          <t>deh-joao-nunes</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>João Lopes</t>
+          <t>João Nunes</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8309,12 +8309,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Sabugal, diocese de Lamego</t>
+          <t>Montemor</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>16880316</t>
+          <t>16320000</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8327,27 +8327,27 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-nunes</t>
+          <t>deh-joao-pacheco</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>João Nunes</t>
+          <t>João Pacheco</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Montemor</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>16320000</t>
+          <t>16880318</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -8355,17 +8355,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 19 ou 28"}}</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-pacheco</t>
+          <t>deh-joao-pereira-i</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>João Pacheco</t>
+          <t>João Pereira</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8380,7 +8384,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>16880318</t>
+          <t>16520000</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8388,36 +8392,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 19 ou 28"}}</t>
-        </is>
-      </c>
+      <c r="G237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-pereira-i</t>
+          <t>deh-joao-simoes</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>João Pereira</t>
+          <t>João Simões</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Penela, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>16520000</t>
+          <t>17340517</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8430,12 +8430,12 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-simoes</t>
+          <t>deh-joaquim-de-azevedo</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>João Simões</t>
+          <t>Joaquim de Azevedo</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Penela, diocese de Coimbra</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>17340517</t>
+          <t>17460615</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8463,27 +8463,27 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>deh-joaquim-de-azevedo</t>
+          <t>deh-johann-alberich</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Joaquim de Azevedo</t>
+          <t>Johann Alberich</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Dorenbüren</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>17460615</t>
+          <t>16051105</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8496,12 +8496,12 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>deh-johann-alberich</t>
+          <t>deh-johann-hoppe</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Johann Alberich</t>
+          <t>Johann Hoppe</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Dorenbüren</t>
+          <t>Schweidnitz, Silésia</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>16051105</t>
+          <t>17241020</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8529,27 +8529,27 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>deh-johann-hoppe</t>
+          <t>deh-johann-siebert</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Johann Hoppe</t>
+          <t>Johann Siebert</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Schweidnitz, Silésia</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>17241020</t>
+          <t>17231009</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8562,27 +8562,27 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>deh-johann-siebert</t>
+          <t>deh-johannes-ciermans</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Johann Siebert</t>
+          <t>Johannes Ciermans</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>Holanda</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>'s-Hertogenbosch, Holanda</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>17231009</t>
+          <t>16191106</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8595,27 +8595,27 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>deh-johannes-ciermans</t>
+          <t>deh-jose-correa-tcheou</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Johannes Ciermans</t>
+          <t>José Correa Tcheou</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Holanda</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch, Holanda</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>16191106</t>
+          <t>17490201</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8628,27 +8628,27 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-correa-tcheou</t>
+          <t>deh-jose-da-silva</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>José Correa Tcheou</t>
+          <t>José da Silva</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Soure, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>17490201</t>
+          <t>1740225</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8656,17 +8656,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>MMHM:p.375</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-da-silva</t>
+          <t>deh-jose-de-almeida-ii</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>José da Silva</t>
+          <t>José de Almeida</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8676,12 +8680,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Soure, diocese de Coimbra</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>1740225</t>
+          <t>16730000</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8689,16 +8693,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>MMHM:p.375</t>
-        </is>
-      </c>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-almeida-ii</t>
+          <t>deh-jose-de-almeida-iii</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8713,12 +8713,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Arcos, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>16730000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8726,17 +8726,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr"/>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-almeida-iii</t>
+          <t>deh-jose-de-araujo</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>José de Almeida</t>
+          <t>José de Araújo</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8746,12 +8750,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Arcos, diocese de Coimbra</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>17410327</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8759,21 +8763,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-araujo</t>
+          <t>deh-jose-de-magalhaes</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>José de Araújo</t>
+          <t>José de Magalhães</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8783,12 +8783,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Amarante, diocese de Braga</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>17410327</t>
+          <t>16490000</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8801,12 +8801,12 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-magalhaes</t>
+          <t>deh-jose-de-sousa</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>José de Magalhães</t>
+          <t>José de Sousa</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Amarante, diocese de Braga</t>
+          <t>Múrcia, diocese de Braga</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>16490000</t>
+          <t>17120226</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8834,12 +8834,12 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-de-sousa</t>
+          <t>deh-jose-estevao-de-almeida</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>José de Sousa</t>
+          <t>José Estêvão de Almeida</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8849,12 +8849,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Múrcia, diocese de Braga</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>17120226</t>
+          <t>16280000</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8867,27 +8867,27 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-estevao-de-almeida</t>
+          <t>deh-jose-felix</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>José Estêvão de Almeida</t>
+          <t>José Félix</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>16280000</t>
+          <t>17491207</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8900,27 +8900,27 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-felix</t>
+          <t>deh-jose-galvao</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>José Félix</t>
+          <t>José Galvão</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>17491207</t>
+          <t>17431016</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -8928,17 +8928,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr"/>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "segundo Pf."}}</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-galvao</t>
+          <t>deh-jose-monteiro</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>José Galvão</t>
+          <t>José Monteiro</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8948,12 +8952,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>17431016</t>
+          <t>16611217</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8963,19 +8967,19 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "segundo Pf."}}</t>
+          <t>extra_info: {"date": {"comment": "ou 1663"}}</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-monteiro</t>
+          <t>deh-jose-rosado</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>José Monteiro</t>
+          <t>José Rosado</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8985,12 +8989,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Vimieiro, diocese de Évora</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>16611217</t>
+          <t>17291026</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -8998,21 +9002,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1663"}}</t>
-        </is>
-      </c>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-rosado</t>
+          <t>deh-jose-simoes</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>José Rosado</t>
+          <t>José Simões</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9022,12 +9022,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Vimieiro, diocese de Évora</t>
+          <t>Lamego</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>17291026</t>
+          <t>16940828</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -9040,12 +9040,12 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-simoes</t>
+          <t>deh-jose-soares</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>José Simões</t>
+          <t>José Soares</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9055,12 +9055,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Lamego</t>
+          <t>Santa Comba Dão, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>16940828</t>
+          <t>16730300</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -9068,32 +9068,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr"/>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "a 15, 23 ou 25"}}</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-soares</t>
+          <t>deh-joseph-de-aguiar-souen</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>José Soares</t>
+          <t>Joseph de Aguiar Souen</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Santa Comba Dão, diocese de Coimbra</t>
+          <t>Changshu, Kiang-sou, China</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>16730300</t>
+          <t>17420921</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -9101,21 +9105,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "a 15, 23 ou 25"}}</t>
-        </is>
-      </c>
+      <c r="G258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-de-aguiar-souen</t>
+          <t>deh-joseph-ferreira</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Joseph de Aguiar Souen</t>
+          <t>Joseph Ferreira</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9125,12 +9125,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Changshu, Kiang-sou, China</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>17420921</t>
+          <t>17310000</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9138,32 +9138,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr"/>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "novi\u00e7o"}}</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-ferreira</t>
+          <t>deh-joseph-francois-tissanier</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Joseph Ferreira</t>
+          <t>Joseph François Tissanier</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Port-Sainte-Marie</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>17310000</t>
+          <t>16431029</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -9171,21 +9175,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "novi\u00e7o"}}</t>
-        </is>
-      </c>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-francois-tissanier</t>
+          <t>deh-joseph-henri</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Joseph François Tissanier</t>
+          <t>Joseph Henri</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9195,12 +9195,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Port-Sainte-Marie</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>16431029</t>
+          <t>16850312</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -9213,12 +9213,12 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-henri</t>
+          <t>deh-joseph-henry-marie-de-premare</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Joseph Henri</t>
+          <t>Joseph Henry-Marie de Prémare</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9228,12 +9228,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Cherbourg</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>16850312</t>
+          <t>16830816</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -9246,12 +9246,12 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-henry-marie-de-premare</t>
+          <t>deh-joseph-labbe</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Joseph Henry-Marie de Prémare</t>
+          <t>Joseph Labbe</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Cherbourg</t>
+          <t>Bourges</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>16830816</t>
+          <t>17010911</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -9279,12 +9279,12 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-labbe</t>
+          <t>deh-joseph-marie-anne-de-moyriac-mailla</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Joseph Labbe</t>
+          <t>Joseph Marie Anne de Moyriac Mailla</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9294,12 +9294,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Bourges</t>
+          <t>Maillac (palácio)</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>17010911</t>
+          <t>16860912</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9312,27 +9312,27 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-marie-anne-de-moyriac-mailla</t>
+          <t>deh-joseph-tcheou</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Joseph Marie Anne de Moyriac Mailla</t>
+          <t>Joseph Tcheou</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Maillac (palácio)</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>16860912</t>
+          <t>17350207</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -9345,27 +9345,27 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>deh-joseph-tcheou</t>
+          <t>deh-juan-baptista-de-ribera</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Joseph Tcheou</t>
+          <t>Juan Baptista de Ribera</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Jerez de la Frontera</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>17350207</t>
+          <t>15540000</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9378,12 +9378,12 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>deh-juan-baptista-de-ribera</t>
+          <t>deh-juan-miguel-de-irigoyen</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Juan Baptista de Ribera</t>
+          <t>Juan Miguel de Irigoyen</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9393,12 +9393,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Jerez de la Frontera</t>
+          <t>Pamplona, Navarra</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>15540000</t>
+          <t>16620319</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -9411,27 +9411,27 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>deh-juan-miguel-de-irigoyen</t>
+          <t>deh-julien-a-cruz</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Juan Miguel de Irigoyen</t>
+          <t>Julien a Cruz</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Pamplona, Navarra</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>16620319</t>
+          <t>16780000</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -9439,17 +9439,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "diz que esteve em miss\u00e3o num semestre em 1681, n\u00e3o est\u00e1 no cat\u00e1logo de 1683"}}</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>deh-julien-a-cruz</t>
+          <t>deh-julien-xavier-tcheng</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Julien a Cruz</t>
+          <t>Julien Xavier Tch'eng</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9459,12 +9463,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>17290324</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -9472,36 +9476,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "diz que esteve em miss\u00e3o num semestre em 1681, n\u00e3o est\u00e1 no cat\u00e1logo de 1683"}}</t>
-        </is>
-      </c>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>deh-julien-xavier-tcheng</t>
+          <t>deh-leon-gonzaga</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Julien Xavier Tch'eng</t>
+          <t>Léon Gonzaga</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>17290324</t>
+          <t>16690000</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9514,27 +9514,27 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>deh-leon-gonzaga</t>
+          <t>deh-leon-pascal-baron</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Léon Gonzaga</t>
+          <t>Léon-Pascal Baron</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Carcassone</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>16690000</t>
+          <t>17570406</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9547,27 +9547,27 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>deh-leon-pascal-baron</t>
+          <t>deh-leopold-liebstain</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Léon-Pascal Baron</t>
+          <t>Leopold Liebstain</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Carcassone</t>
+          <t>Neisse, Silésia</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>17570406</t>
+          <t>16851014</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -9580,27 +9580,27 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>deh-leopold-liebstain</t>
+          <t>deh-lodovico-azzi</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Leopold Liebstain</t>
+          <t>Lodovico Azzi</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Neisse, Silésia</t>
+          <t>Lucca</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>16851014</t>
+          <t>16560401</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9613,27 +9613,27 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>deh-lodovico-azzi</t>
+          <t>deh-louis-barnabe</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Lodovico Azzi</t>
+          <t>Louis Barnabé</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Lucca</t>
+          <t>Loches (Indre-et-Loire)</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>16560401</t>
+          <t>16660831</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9641,17 +9641,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16661211"}}</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-barnabe</t>
+          <t>deh-louis-de-pernon</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Louis Barnabé</t>
+          <t>Louis de Pernon</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9661,12 +9665,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Loches (Indre-et-Loire)</t>
+          <t>Montauban</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>16660831</t>
+          <t>16800902</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -9674,21 +9678,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16661211"}}</t>
-        </is>
-      </c>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-de-pernon</t>
+          <t>deh-louis-gobet</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Louis de Pernon</t>
+          <t>Louis Gobet</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9698,12 +9698,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Montauban</t>
+          <t>Château-Thierry, diocese de Soissons</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>16800902</t>
+          <t>16320927</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -9716,12 +9716,12 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-gobet</t>
+          <t>deh-louis-jean-xavier-armand-nyel</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Louis Gobet</t>
+          <t>Louis Jean-Xavier Armand Nyel</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9731,12 +9731,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Château-Thierry, diocese de Soissons</t>
+          <t>Vitry</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>16320927</t>
+          <t>16861028</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -9749,12 +9749,12 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-jean-xavier-armand-nyel</t>
+          <t>deh-louis-joseph-le-febure</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Louis Jean-Xavier Armand Nyel</t>
+          <t>Louis-Joseph Le Febure</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9764,12 +9764,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Vitry</t>
+          <t>Clisson</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>16861028</t>
+          <t>17221118</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9777,17 +9777,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17221128"}}</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-joseph-le-febure</t>
+          <t>deh-louis-rochette</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Louis-Joseph Le Febure</t>
+          <t>Louis Rochette</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9797,12 +9801,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Clisson</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>17221118</t>
+          <t>16610918</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -9810,21 +9814,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17221128"}}</t>
-        </is>
-      </c>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-rochette</t>
+          <t>deh-louis-velay</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Louis Rochette</t>
+          <t>Louis Velay</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9834,12 +9834,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Tournon</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>16610918</t>
+          <t>16840227</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -9852,27 +9852,27 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>deh-louis-velay</t>
+          <t>deh-lucas-correa</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Louis Velay</t>
+          <t>Lucas Correa</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Tournon</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>16840227</t>
+          <t>16280000</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -9885,27 +9885,27 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>deh-lucas-correa</t>
+          <t>deh-lucas-pinto</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Lucas Correa</t>
+          <t>Lucas Pinto</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>16280000</t>
+          <t>17070612</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -9918,27 +9918,27 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>deh-lucas-pinto</t>
+          <t>deh-luigi-cipolla</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Lucas Pinto</t>
+          <t>Luigi Cipolla</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Caltavuturo, Palermo</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>17070612</t>
+          <t>17571105</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -9951,27 +9951,27 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>deh-luigi-cipolla</t>
+          <t>deh-luis-da-gama</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Luigi Cipolla</t>
+          <t>Luís da Gama</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Caltavuturo, Palermo</t>
+          <t>Lavre, diocese de Évora</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>17571105</t>
+          <t>16250000</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -9984,12 +9984,12 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-da-gama</t>
+          <t>deh-luis-de-carvalho-i</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Luís da Gama</t>
+          <t>Luís de Carvalho</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -9999,12 +9999,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Lavre, diocese de Évora</t>
+          <t>Guimarães</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>16250000</t>
+          <t>17440827</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -10012,12 +10012,16 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>marcado destinado à China em 17490000</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-carvalho-i</t>
+          <t>deh-luis-de-carvalho-ii</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -10032,12 +10036,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Guimarães</t>
+          <t>Miranda do Corvo, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>17440827</t>
+          <t>17490327</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -10045,36 +10049,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>marcado destinado à China em 17490000</t>
-        </is>
-      </c>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-carvalho-ii</t>
+          <t>deh-luis-de-faria</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Luís de Carvalho</t>
+          <t>Luís de Faria</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Miranda do Corvo, diocese de Coimbra</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>17490327</t>
+          <t>16200000</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -10087,12 +10087,12 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-faria</t>
+          <t>deh-luis-de-figueiredo</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Luís de Faria</t>
+          <t>Luís de Figueiredo</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>16200000</t>
+          <t>16450000</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -10115,32 +10115,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16460000"}}</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-figueiredo</t>
+          <t>deh-luis-de-moura</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Luís de Figueiredo</t>
+          <t>Luís de Moura</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>16450000</t>
+          <t>17350000</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -10148,21 +10152,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16460000"}}</t>
-        </is>
-      </c>
+      <c r="G289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-moura</t>
+          <t>deh-luis-de-sequeira</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Luís de Moura</t>
+          <t>Luís de Sequeira</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10172,12 +10172,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Carcavelos</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>17350000</t>
+          <t>17090901</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -10190,12 +10190,12 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-sequeira</t>
+          <t>deh-luis-duarte</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Luís de Sequeira</t>
+          <t>Luís Duarte</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Carcavelos</t>
+          <t>Rio de Vide, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>17090901</t>
+          <t>17460519</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10223,12 +10223,12 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-duarte</t>
+          <t>deh-luis-pereira</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Luís Duarte</t>
+          <t>Luís Pereira</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10238,12 +10238,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Rio de Vide, diocese de Coimbra</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>17460519</t>
+          <t>17251125</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10256,12 +10256,12 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-pereira</t>
+          <t>deh-luis-pinheiro</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Luís Pereira</t>
+          <t>Luís Pinheiro</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10271,12 +10271,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Esgueira, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>17251125</t>
+          <t>16370000</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>16370000</t>
+          <t>16450000</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10322,27 +10322,27 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-pinheiro</t>
+          <t>deh-luis-rodrigues</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Luís Pinheiro</t>
+          <t>Luís Rodrigues</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Esgueira, diocese de Coimbra</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>16450000</t>
+          <t>16830421</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10355,27 +10355,27 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-rodrigues</t>
+          <t>deh-manoel-soares</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Luís Rodrigues</t>
+          <t>Manoel Soares</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Pouva, diocese de Portalegre</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>16830421</t>
+          <t>16300000</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -10388,27 +10388,27 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>deh-manoel-soares</t>
+          <t>deh-manuel-a-costa</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Manoel Soares</t>
+          <t>Manuel a Costa</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Pouva, diocese de Portalegre</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>16300000</t>
+          <t>16520000</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -10421,27 +10421,27 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-a-costa</t>
+          <t>deh-manuel-camello</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Manuel a Costa</t>
+          <t>Manuel Camello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Penajóia, diocese de Lamego</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>16520000</t>
+          <t>17000000</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -10454,12 +10454,12 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-camello</t>
+          <t>deh-manuel-carvalho-ii</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Manuel Camello</t>
+          <t>Manuel Carvalho</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10469,12 +10469,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Penajóia, diocese de Lamego</t>
+          <t>Tancos, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>17000000</t>
+          <t>16780000</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10482,17 +10482,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr"/>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "se for ele"}}</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-carvalho-ii</t>
+          <t>deh-manuel-cortese</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Manuel Carvalho</t>
+          <t>Manuel Cortese</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10502,12 +10506,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Tancos, diocese de Lisboa</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -10515,21 +10519,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "se for ele"}}</t>
-        </is>
-      </c>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-cortese</t>
+          <t>deh-manuel-da-costa</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Manuel Cortese</t>
+          <t>Manuel da Costa</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Figueiró, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17481209</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10552,17 +10552,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr"/>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "estava j\u00e1 no noviciado"}}</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-da-costa</t>
+          <t>deh-manuel-da-mata</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Manuel da Costa</t>
+          <t>Manuel da Mata</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10572,12 +10576,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Figueiró, diocese de Coimbra</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>17481209</t>
+          <t>16820204</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -10585,21 +10589,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "estava j\u00e1 no noviciado"}}</t>
-        </is>
-      </c>
+      <c r="G302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-da-mata</t>
+          <t>deh-manuel-da-motta</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Manuel da Mata</t>
+          <t>Manuel da Motta</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10609,12 +10609,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>16820204</t>
+          <t>17360519</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10627,12 +10627,12 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-da-motta</t>
+          <t>deh-manuel-de-azevedo</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Manuel da Motta</t>
+          <t>Manuel de Azevedo</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10642,12 +10642,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Viseu</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>17360519</t>
+          <t>15870000</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10660,12 +10660,12 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-azevedo</t>
+          <t>deh-manuel-de-carvalho</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Manuel de Azevedo</t>
+          <t>Manuel de Carvalho</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10675,12 +10675,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Viseu</t>
+          <t>Porto de Mós, diocese de Leiria</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>15870000</t>
+          <t>17240402</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10693,12 +10693,12 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-carvalho</t>
+          <t>deh-manuel-de-carvalho-i</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Manuel de Carvalho</t>
+          <t>Manuel Carvalho</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Porto de Mós, diocese de Leiria</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>17240402</t>
+          <t>16470000</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -10726,12 +10726,12 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-carvalho-i</t>
+          <t>deh-manuel-de-carvalho-ii</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Manuel Carvalho</t>
+          <t>Manuel de Carvalho</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10741,12 +10741,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Águeda, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>16470000</t>
+          <t>17470102</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -10754,17 +10754,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr"/>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>talvez tenha saído durante o noviciado extra_info: {"value": {"comment": "para a China"}}</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-carvalho-ii</t>
+          <t>deh-manuel-de-figueiredo</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Manuel de Carvalho</t>
+          <t>Manuel de Figueiredo</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10774,12 +10778,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Águeda, diocese de Coimbra</t>
+          <t>S. André de Medi, diocese do Porto</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>17470102</t>
+          <t>16110000</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -10787,36 +10791,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>talvez tenha saído durante o noviciado extra_info: {"value": {"comment": "para a China"}}</t>
-        </is>
-      </c>
+      <c r="G308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-figueiredo</t>
+          <t>deh-manuel-de-morais</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Manuel de Figueiredo</t>
+          <t>Manuel de Morais</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>S. André de Medi, diocese do Porto</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>16110000</t>
+          <t>17310814</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10829,27 +10829,27 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-morais</t>
+          <t>deh-manuel-de-pereira-ii</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Manuel de Morais</t>
+          <t>Manuel de Pereira</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lugar da Cruz</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>17310814</t>
+          <t>16550000</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10862,12 +10862,12 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-pereira-ii</t>
+          <t>deh-manuel-de-silva</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Manuel de Pereira</t>
+          <t>Manuel de Silva</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10877,12 +10877,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Lugar da Cruz</t>
+          <t>Tomar</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>16550000</t>
+          <t>17470406</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10895,12 +10895,12 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-silva</t>
+          <t>deh-manuel-de-sousa</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Manuel de Silva</t>
+          <t>Manuel de Sousa</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10910,12 +10910,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Tomar</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>17470406</t>
+          <t>16940825</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10928,12 +10928,12 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-sousa</t>
+          <t>deh-manuel-dos-reis</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Manuel de Sousa</t>
+          <t>Manuel dos Reis</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>16940825</t>
+          <t>16550000</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10961,12 +10961,12 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dos-reis</t>
+          <t>deh-manuel-gomes-formao</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Manuel dos Reis</t>
+          <t>Manuel Gomes Formão</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10976,12 +10976,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Melgaço, diocese de Braga</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>16550000</t>
+          <t>17340213</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10994,12 +10994,12 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-gomes-formao</t>
+          <t>deh-manuel-goncalves</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Manuel Gomes Formão</t>
+          <t>Manuel Gonçalves</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11009,12 +11009,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Melgaço, diocese de Braga</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>17340213</t>
+          <t>17390810</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -11027,12 +11027,12 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-goncalves</t>
+          <t>deh-manuel-jose</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Manuel Gonçalves</t>
+          <t>Manuel José</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11042,12 +11042,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Guemara, diocese de Braga</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>17390810</t>
+          <t>17290820</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -11055,32 +11055,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr"/>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17290802"}}</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jose</t>
+          <t>deh-manuel-lopes</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Manuel José</t>
+          <t>Manuel Lopes</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Guemara, diocese de Braga</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>17290820</t>
+          <t>17491207</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -11088,36 +11092,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17290802"}}</t>
-        </is>
-      </c>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-lopes</t>
+          <t>deh-manuel-marques</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Manuel Lopes</t>
+          <t>Manuel Marques</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Diocese de Évora</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>17491207</t>
+          <t>16931125</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -11130,27 +11130,27 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-marques</t>
+          <t>deh-manuel-pereira-yeou</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Manuel Marques</t>
+          <t>Manuel Pereira Yeou</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Diocese de Évora</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>16931125</t>
+          <t>16050815</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -11163,27 +11163,27 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-pereira-yeou</t>
+          <t>deh-manuel-pinto-ii</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Manuel Pereira Yeou</t>
+          <t>Manuel Pinto</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>16050815</t>
+          <t>16520314</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -11196,7 +11196,7 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-pinto-ii</t>
+          <t>deh-manuel-pinto-iii</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -11211,12 +11211,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Nespereira, diocese de Viseu</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>16520314</t>
+          <t>17041230</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -11229,12 +11229,12 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-pinto-iii</t>
+          <t>deh-manuel-ribeiro-junior</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Manuel Pinto</t>
+          <t>Manuel Ribeiro, junior</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11244,12 +11244,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Nespereira, diocese de Viseu</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>17041230</t>
+          <t>17000301</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -11262,27 +11262,27 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-ribeiro-junior</t>
+          <t>deh-manuel-rodrigues-i</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Manuel Ribeiro, junior</t>
+          <t>Manuel Rodrigues</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>17000301</t>
+          <t>16020000</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -11295,7 +11295,7 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-rodrigues-i</t>
+          <t>deh-manuel-rodrigues-iii</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>16020000</t>
+          <t>16810102</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -11328,27 +11328,27 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-rodrigues-iii</t>
+          <t>deh-manuel-teles</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Manuel Rodrigues</t>
+          <t>Manuel Teles</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Arraiolos, diocese de Évora</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>16810102</t>
+          <t>16930824</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -11356,17 +11356,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr"/>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "aparece inscrito, mas depois o seu nome \u00e9 repetio em \u00c9vora, 16970925, ter\u00e1 sa\u00eddo no entretanto?"}}</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-teles</t>
+          <t>deh-manuel-viegas</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Manuel Teles</t>
+          <t>Manuel Viegas</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11376,12 +11380,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Arraiolos, diocese de Évora</t>
+          <t>Marvão, diocese de Portalegre</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>16930824</t>
+          <t>17290731</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -11391,34 +11395,34 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "aparece inscrito, mas depois o seu nome \u00e9 repetio em \u00c9vora, 16970925, ter\u00e1 sa\u00eddo no entretanto?"}}</t>
+          <t>extra_info: {"value": {"comment": "o cat\u00e1logo de 1717 diz 17170509, a primeira data vem do cat\u00e1logo de 1734"}}</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-viegas</t>
+          <t>deh-marc-ribeiro-kouan</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Manuel Viegas</t>
+          <t>Marc Ribeiro Kouan</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Marvão, diocese de Portalegre</t>
+          <t>Soochow (Sou-tcheou fou), Kiangnan</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>17290731</t>
+          <t>17420921</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -11426,36 +11430,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "o cat\u00e1logo de 1717 diz 17170509, a primeira data vem do cat\u00e1logo de 1734"}}</t>
-        </is>
-      </c>
+      <c r="G327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>deh-marc-ribeiro-kouan</t>
+          <t>deh-martim-correa</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Marc Ribeiro Kouan</t>
+          <t>Martim Correa</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Soochow (Sou-tcheou fou), Kiangnan</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>17420921</t>
+          <t>17200815</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -11468,27 +11468,27 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>deh-martim-correa</t>
+          <t>deh-martin-spilleben</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Martim Correa</t>
+          <t>Martin Spilleben</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Bruges</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>17200815</t>
+          <t>16090104</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -11501,27 +11501,27 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>deh-martin-spilleben</t>
+          <t>deh-mateus-de-figueiredo</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Martin Spilleben</t>
+          <t>Mateus de Figueiredo</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Bruges</t>
+          <t>S. Joaninho, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>16090104</t>
+          <t>17440404</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -11529,17 +11529,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "para a China"}}</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-figueiredo</t>
+          <t>deh-mateus-gago</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mateus de Figueiredo</t>
+          <t>Mateus Gago</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11549,12 +11553,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>S. Joaninho, diocese de Coimbra</t>
+          <t>Serpa, diocese de Évora</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>17440404</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11562,36 +11566,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "para a China"}}</t>
-        </is>
-      </c>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-gago</t>
+          <t>deh-mateus-vaz</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mateus Gago</t>
+          <t>Mateus Vaz</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Serpa, diocese de Évora</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16320000</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -11599,32 +11599,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G332" t="inlineStr"/>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 1634"}}</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-vaz</t>
+          <t>deh-matias-de-sousa</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mateus Vaz</t>
+          <t>Matias de Sousa</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Amarante, diocese de Braga</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>16320000</t>
+          <t>16110000</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -11632,36 +11636,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1634"}}</t>
-        </is>
-      </c>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-de-sousa</t>
+          <t>deh-matthieu-kang</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Matias de Sousa</t>
+          <t>Matthieu K'ang</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Amarante, diocese de Braga</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>16110000</t>
+          <t>16160000</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -11669,32 +11669,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G334" t="inlineStr"/>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>depois de libertado da escravatura extra_info: {"date": {"comment": "[depois de 1615 que \u00e9 a data da persegui\u00e7\u00e3o ao padre Sebasti\u00e3o Fernandes- JRC]"}}</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>deh-matthieu-kang</t>
+          <t>deh-michel-pernet</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Matthieu K'ang</t>
+          <t>Michel Pernet</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Boulogne-sur-mer</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>16160000</t>
+          <t>16891114</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -11702,36 +11706,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>depois de libertado da escravatura extra_info: {"date": {"comment": "[depois de 1615 que \u00e9 a data da persegui\u00e7\u00e3o ao padre Sebasti\u00e3o Fernandes- JRC]"}}</t>
-        </is>
-      </c>
+      <c r="G335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>deh-michel-pernet</t>
+          <t>deh-miguel-barbosa</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Michel Pernet</t>
+          <t>Miguel Barbosa</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Boulogne-sur-mer</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>16891114</t>
+          <t>16350000</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -11744,27 +11744,27 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-barbosa</t>
+          <t>deh-miguel-rodrigues</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Miguel Barbosa</t>
+          <t>Miguel Rodrigues</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>16350000</t>
+          <t>16020000</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -11777,27 +11777,27 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-rodrigues</t>
+          <t>deh-miguel-soares</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Miguel Rodrigues</t>
+          <t>Miguel Soares</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Santarém</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>16020000</t>
+          <t>15780000</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -11810,27 +11810,27 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-soares</t>
+          <t>deh-niccolo-gianpriamo</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Miguel Soares</t>
+          <t>Niccolò Gianpriamo</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Santarém</t>
+          <t>Aversa, Itália</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>15780000</t>
+          <t>17020721</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -11843,27 +11843,27 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>deh-niccolo-gianpriamo</t>
+          <t>deh-nicolas-dufour</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Niccolò Gianpriamo</t>
+          <t>Nicolas Dufour</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Holanda</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Aversa, Itália</t>
+          <t>Sluys, Holanda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>17020721</t>
+          <t>16801002</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -11876,27 +11876,27 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolas-dufour</t>
+          <t>deh-nicolas-zarate</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Nicolas Dufour</t>
+          <t>Nicolás Zárate</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Holanda</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Sluys, Holanda</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>16801002</t>
+          <t>16920303</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -11909,27 +11909,27 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolas-zarate</t>
+          <t>deh-nicolau-de-faria</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Nicolás Zárate</t>
+          <t>Nicolau de Faria</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>16920303</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -11942,27 +11942,27 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolau-de-faria</t>
+          <t>deh-nikolaus-fiva</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Nicolau de Faria</t>
+          <t>Nikolaus Fiva</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Friburgo, Suíça</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>16280320</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -11975,27 +11975,27 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>deh-nikolaus-fiva</t>
+          <t>deh-norbert-korsak</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Nikolaus Fiva</t>
+          <t>Norbert Korsak</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Polónia</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Friburgo, Suíça</t>
+          <t>Polotsk, Bielorrússia</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>16280320</t>
+          <t>17880828</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -12008,27 +12008,27 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>deh-norbert-korsak</t>
+          <t>deh-onofrio-villiani</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Norbert Korsak</t>
+          <t>Onofrio Villiani</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Polónia</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Polotsk, Bielorrússia</t>
+          <t>Faenza</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>17880828</t>
+          <t>17311016</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -12041,12 +12041,12 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>deh-onofrio-villiani</t>
+          <t>deh-pallavicini</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Onofrio Villiani</t>
+          <t>Pallavicini</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12056,12 +12056,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Faenza</t>
+          <t>Ceva, Cuneo</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>17311016</t>
+          <t>16761227</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -12074,12 +12074,12 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>deh-pallavicini</t>
+          <t>deh-paolo-agostino-amoretti</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pallavicini</t>
+          <t>Paolo-Agostino Amoretti</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12089,12 +12089,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Ceva, Cuneo</t>
+          <t>San Remo</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>16761227</t>
+          <t>17581126</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -12107,12 +12107,12 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>deh-paolo-agostino-amoretti</t>
+          <t>deh-paolo-cavallina</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Paolo-Agostino Amoretti</t>
+          <t>Paolo Cavallina</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12122,12 +12122,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>San Remo</t>
+          <t>Bolonha</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>17581126</t>
+          <t>16041012</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -12140,27 +12140,27 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>deh-paolo-cavallina</t>
+          <t>deh-pascoal-castangus</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Paolo Cavallina</t>
+          <t>Pascoal Castangus</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Bolonha</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>16041012</t>
+          <t>15850000</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -12173,12 +12173,12 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>deh-pascoal-castangus</t>
+          <t>deh-pascoal-fernandes-fan</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Pascoal Castangus</t>
+          <t>Pascoal Fernandes Fan</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12193,7 +12193,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>15850000</t>
+          <t>16340000</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -12206,12 +12206,12 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>deh-pascoal-fernandes-fan</t>
+          <t>deh-pascoal-mendes-kieou</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Pascoal Fernandes Fan</t>
+          <t>Pascoal Mendes K'ieou</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>16340000</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -12234,32 +12234,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr"/>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "catequista"}}</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>deh-pascoal-mendes-kieou</t>
+          <t>deh-patrice-comilh</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Pascoal Mendes K'ieou</t>
+          <t>Patrice Comilh</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16731119</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -12269,34 +12273,34 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "catequista"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 16730930"}}</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>deh-patrice-comilh</t>
+          <t>deh-paulo-de-campos</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Patrice Comilh</t>
+          <t>Paulo de Campos</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Bobadela, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>16731119</t>
+          <t>17370502</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -12304,36 +12308,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16730930"}}</t>
-        </is>
-      </c>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>deh-paulo-de-campos</t>
+          <t>deh-pedro-da-cruz</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Paulo de Campos</t>
+          <t>Pedro da Cruz</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Bobadela, diocese de Coimbra</t>
+          <t>Nagasaki</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>17370502</t>
+          <t>16220000</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -12346,27 +12346,27 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-da-cruz</t>
+          <t>deh-pedro-de-figueiredo-ii</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Pedro da Cruz</t>
+          <t>Pedro de Figueiredo</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Nagasaki</t>
+          <t>Pombal</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>16220000</t>
+          <t>17160313</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -12374,17 +12374,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G355" t="inlineStr"/>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "no mar, pela data de embarque seria em Lisboa?", "original": "in mari"}}</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-figueiredo-ii</t>
+          <t>deh-pedro-de-francisco</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Pedro de Figueiredo</t>
+          <t>Pedro de Francisco</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12394,12 +12398,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Pombal</t>
+          <t>Covilhã, diocese da Guarda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>17160313</t>
+          <t>15880000</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -12409,19 +12413,19 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "no mar, pela data de embarque seria em Lisboa?", "original": "in mari"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 1581 segundo Wicki"}}</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-francisco</t>
+          <t>deh-pedro-de-lis</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Pedro de Francisco</t>
+          <t>Pedro de Lis</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12431,12 +12435,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Covilhã, diocese da Guarda</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>15880000</t>
+          <t>16490815</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -12444,36 +12448,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1581 segundo Wicki"}}</t>
-        </is>
-      </c>
+      <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-lis</t>
+          <t>deh-pedro-marques-junior</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Pedro de Lis</t>
+          <t>Pedro Marques, júnior</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Nagasaki</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>16490815</t>
+          <t>16310000</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -12486,27 +12486,27 @@
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-marques-junior</t>
+          <t>deh-pedro-ribeiro</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Pedro Marques, júnior</t>
+          <t>Pedro Ribeiro</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Nagasaki</t>
+          <t>Portalegre</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>16310000</t>
+          <t>15880000</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -12519,12 +12519,12 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-ribeiro</t>
+          <t>deh-pedro-zuzarte</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Pedro Ribeiro</t>
+          <t>Pedro Zuzarte</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12534,12 +12534,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Portalegre</t>
+          <t>Loures, diocese de Lisboa</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>15880000</t>
+          <t>16350000</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -12547,32 +12547,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr"/>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 16320000"}}</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-zuzarte</t>
+          <t>deh-pero-da-cruz</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Pedro Zuzarte</t>
+          <t>Pero da Cruz</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Loures, diocese de Lisboa</t>
+          <t>Segóvia</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>16350000</t>
+          <t>15540000</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -12580,36 +12584,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16320000"}}</t>
-        </is>
-      </c>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>deh-pero-da-cruz</t>
+          <t>deh-pero-rodrigues</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Pero da Cruz</t>
+          <t>Pero Rodrigues</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segóvia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>15540000</t>
+          <t>15951004</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12622,27 +12622,27 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>deh-pero-rodrigues</t>
+          <t>deh-philibert-geneix</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pero Rodrigues</t>
+          <t>Philibert Geneix</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Diocese de Clermont-Ferrand</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>15951004</t>
+          <t>16900907</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12655,27 +12655,27 @@
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>deh-philibert-geneix</t>
+          <t>deh-philipp-sibin</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Philibert Geneix</t>
+          <t>Philipp Sibin</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Diocese de Clermont-Ferrand</t>
+          <t>Nehaus, Westphalia</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>16900907</t>
+          <t>16970510</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12688,27 +12688,27 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>deh-philipp-sibin</t>
+          <t>deh-philippe-couplet</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Philipp Sibin</t>
+          <t>Philippe Couplet</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Nehaus, Westphalia</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>16970510</t>
+          <t>16401011</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12721,27 +12721,27 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>deh-philippe-couplet</t>
+          <t>deh-philippe-gonzaga</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Philippe Couplet</t>
+          <t>Philippe Gonzaga</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>16401011</t>
+          <t>17301027</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12754,27 +12754,27 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>deh-philippe-gonzaga</t>
+          <t>deh-pierre-albier</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Philippe Gonzaga</t>
+          <t>Pierre Albier</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Limousin</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>17301027</t>
+          <t>16440000</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12787,12 +12787,12 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-albier</t>
+          <t>deh-pierre-dalbissi</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Pierre Albier</t>
+          <t>Pierre Dalbissi</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12802,12 +12802,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Limousin</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>16440000</t>
+          <t>16820424</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12820,12 +12820,12 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-dalbissi</t>
+          <t>deh-pierre-espagnac</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Pierre Dalbissi</t>
+          <t>Pierre Espagnac</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12835,12 +12835,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Béziers</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>16820424</t>
+          <t>16690929</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12853,12 +12853,12 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-espagnac</t>
+          <t>deh-pierre-faure</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Pierre Espagnac</t>
+          <t>Pierre Faure</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12868,12 +12868,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Béziers</t>
+          <t>Saint-Céré</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>16690929</t>
+          <t>16920914</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -12886,12 +12886,12 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-faure</t>
+          <t>deh-pierre-francois-daudy</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Pierre Faure</t>
+          <t>Pierre-François Daudy</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12901,12 +12901,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Saint-Céré</t>
+          <t>Franche-Comté</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>16920914</t>
+          <t>16831026</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -12919,12 +12919,12 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-francois-daudy</t>
+          <t>deh-pierre-frapperie</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Pierre-François Daudy</t>
+          <t>Pierre Frapperie</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -12934,12 +12934,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Franche-Comté</t>
+          <t>Angoulême</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>16831026</t>
+          <t>16861002</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -12952,12 +12952,12 @@
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-frapperie</t>
+          <t>deh-pierre-hebrard</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Pierre Frapperie</t>
+          <t>Pierre Hébrard</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -12967,12 +12967,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Angoulême</t>
+          <t>Diocese de Albi</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>16861002</t>
+          <t>16821014</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -12980,17 +12980,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G373" t="inlineStr"/>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Toulouse? @wikidata:Q7880"}}</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-hebrard</t>
+          <t>deh-pierre-mauduit</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Pierre Hébrard</t>
+          <t>Pierre Mauduit</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13000,12 +13004,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Diocese de Albi</t>
+          <t>Poitiers</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>16821014</t>
+          <t>16790928</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -13013,21 +13017,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Toulouse? @wikidata:Q7880"}}</t>
-        </is>
-      </c>
+      <c r="G374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-mauduit</t>
+          <t>deh-pierre-peyronenc</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Pierre Mauduit</t>
+          <t>Pierre Peyronenc</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13037,12 +13037,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Poitiers</t>
+          <t>Diocese de Rodez</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>16790928</t>
+          <t>16350829</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -13055,12 +13055,12 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-peyronenc</t>
+          <t>deh-pierre-quenein</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Pierre Peyronenc</t>
+          <t>Pierre Quenein</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13070,12 +13070,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Diocese de Rodez</t>
+          <t>Poitou</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>16350829</t>
+          <t>16760911</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -13088,27 +13088,27 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-quenein</t>
+          <t>deh-pierre-tchen</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Pierre Quenein</t>
+          <t>Pierre T'chen</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Poitou</t>
+          <t>Soochow, Kiang-nan</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>16760911</t>
+          <t>17340803</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -13121,27 +13121,27 @@
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-tchen</t>
+          <t>deh-pierre-vaquier-la-baume</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Pierre T'chen</t>
+          <t>Pierre Vaquier La Baume</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Soochow, Kiang-nan</t>
+          <t>Diocese de Rodez</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>17340803</t>
+          <t>17481005</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -13149,32 +13149,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G378" t="inlineStr"/>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "em 1758 n\u00e3o era ainda Padre"}}</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>deh-pierre-vaquier-la-baume</t>
+          <t>deh-pietro-balemonte</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Pierre Vaquier La Baume</t>
+          <t>Pietro Belmonte</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Diocese de Rodez</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>17481005</t>
+          <t>16731104</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -13182,21 +13186,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "em 1758 n\u00e3o era ainda Padre"}}</t>
-        </is>
-      </c>
+      <c r="G379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>deh-pietro-balemonte</t>
+          <t>deh-pietro-francesco-capacci</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Pietro Belmonte</t>
+          <t>Pietro Francesco Capacci</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13206,12 +13206,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Siena</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>16731104</t>
+          <t>16721121</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -13224,12 +13224,12 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>deh-pietro-francesco-capacci</t>
+          <t>deh-pietro-paolo-arrigoni</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Pietro Francesco Capacci</t>
+          <t>Pietro Paolo Arrigoni</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13239,12 +13239,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Siena</t>
+          <t>Milão</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>16721121</t>
+          <t>16411217</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -13257,27 +13257,27 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>deh-pietro-paolo-arrigoni</t>
+          <t>deh-policarpo-de-sousa</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Pietro Paolo Arrigoni</t>
+          <t>Policarpo de Sousa</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Milão</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>16411217</t>
+          <t>17121031</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -13290,27 +13290,27 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>deh-policarpo-de-sousa</t>
+          <t>deh-prospero-intorcetta</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Policarpo de Sousa</t>
+          <t>Prospero Intorcetta</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Piazza Armerina, Sicília</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>17121031</t>
+          <t>16421231</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -13323,27 +13323,27 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>deh-prospero-intorcetta</t>
+          <t>deh-quentin-cousin</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Prospero Intorcetta</t>
+          <t>Quentin Cousin</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Piazza Armerina, Sicília</t>
+          <t>Tournai</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>16421231</t>
+          <t>16040521</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -13356,27 +13356,27 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>deh-quentin-cousin</t>
+          <t>deh-rui-barreto</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Quentin Cousin</t>
+          <t>Rui Barreto</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Tournai</t>
+          <t>Mora, diocese de Évora</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>16040521</t>
+          <t>15681228</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -13384,32 +13384,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G385" t="inlineStr"/>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 15721228"}}</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>deh-rui-barreto</t>
+          <t>deh-sebastian-zwerger</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Rui Barreto</t>
+          <t>Sebastian Zwerger</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Mora, diocese de Évora</t>
+          <t>Munique</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>15681228</t>
+          <t>17280913</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -13417,36 +13421,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 15721228"}}</t>
-        </is>
-      </c>
+      <c r="G386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastian-zwerger</t>
+          <t>deh-sebastiao-correa-i</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Sebastian Zwerger</t>
+          <t>Sebastião Correa</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Munique</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>17280913</t>
+          <t>16570000</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -13454,32 +13454,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G387" t="inlineStr"/>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-correa-i</t>
+          <t>deh-silvestre-furtado</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sebastião Correa</t>
+          <t>Silvestre Furtado</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Lamego</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>16570000</t>
+          <t>16881128</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -13487,21 +13491,17 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-vieira</t>
+          <t>deh-simao-de-almeida</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Sebastião Vieira</t>
+          <t>Simão de Almeida</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13511,12 +13511,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Castro Daire, diocese de Lamego</t>
+          <t>Viseu</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>15910203</t>
+          <t>17460318</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -13529,12 +13529,12 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>deh-silvestre-furtado</t>
+          <t>deh-simao-pinto</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Silvestre Furtado</t>
+          <t>Simão Pinto</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13544,12 +13544,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Lamego</t>
+          <t>São Pedro do Sul, diocese de Viseu</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>16881128</t>
+          <t>16750000</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -13562,12 +13562,12 @@
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-de-almeida</t>
+          <t>deh-simao-rodrigues</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Simão de Almeida</t>
+          <t>Simão Rodrigues</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13577,12 +13577,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Viseu</t>
+          <t>Évora</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>17460318</t>
+          <t>16591015</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -13595,27 +13595,27 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-pinto</t>
+          <t>deh-simeao-soares</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Simão Pinto</t>
+          <t>Simeão Soares</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>São Pedro do Sul, diocese de Viseu</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>16750000</t>
+          <t>16570000</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -13628,27 +13628,27 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-rodrigues</t>
+          <t>deh-stanislas-monteiro</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Simão Rodrigues</t>
+          <t>Stanislas Monteiro</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Évora</t>
+          <t>T'ai-yuan fou, Shansi</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>16591015</t>
+          <t>17380713</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -13661,12 +13661,12 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>deh-simeao-soares</t>
+          <t>deh-symphorien-duarte</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Simeão Soares</t>
+          <t>Symphorien Duarte</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13676,12 +13676,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Hangchow, Chekiang</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>16570000</t>
+          <t>17490201</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -13689,32 +13689,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G394" t="inlineStr"/>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17490202"}}</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>deh-stanislas-monteiro</t>
+          <t>deh-teotonio-leitao</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Stanislas Monteiro</t>
+          <t>Teotónio Leitão</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>T'ai-yuan fou, Shansi</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>17380713</t>
+          <t>16990000</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -13727,12 +13731,12 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>deh-symphorien-duarte</t>
+          <t>deh-thaddee-xavier</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Symphorien Duarte</t>
+          <t>Thaddée Xavier</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13742,12 +13746,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Hangchow, Chekiang</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>17490201</t>
+          <t>17401101</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -13755,36 +13759,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17490202"}}</t>
-        </is>
-      </c>
+      <c r="G396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>deh-teotonio-leitao</t>
+          <t>deh-thomas-ignace-kiang</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Teotónio Leitão</t>
+          <t>Thomas Ignace Kiang</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Kiangsi</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>16990000</t>
+          <t>16900903</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -13792,17 +13792,21 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G397" t="inlineStr"/>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 30 ou 29"}}</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>deh-thaddee-xavier</t>
+          <t>deh-thomas-soares</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Thaddée Xavier</t>
+          <t>Thomas Soares</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13817,7 +13821,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>17401101</t>
+          <t>17401031</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -13825,32 +13829,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G398" t="inlineStr"/>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 1 de novembro"}}</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>deh-thomas-ignace-kiang</t>
+          <t>deh-tome-da-silva</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Thomas Ignace Kiang</t>
+          <t>Tomé da Silva</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Kiangsi</t>
+          <t>Sousa, diocese de Coimbra</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>16900903</t>
+          <t>17460719</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -13860,34 +13868,34 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 30 ou 29"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 17480000"}}</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>deh-thomas-soares</t>
+          <t>deh-tommaso-valguarnera</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Thomas Soares</t>
+          <t>Tommaso Valguarnera</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Assoro, Sicília</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>17401031</t>
+          <t>16270306</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -13895,36 +13903,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1 de novembro"}}</t>
-        </is>
-      </c>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-da-silva</t>
+          <t>deh-valentim-stansel</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tomé da Silva</t>
+          <t>Valentim Stansel</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Sousa, diocese de Coimbra</t>
+          <t>Olomouc</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>17460719</t>
+          <t>16371001</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -13932,36 +13936,32 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17480000"}}</t>
-        </is>
-      </c>
+      <c r="G401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>deh-tommaso-valguarnera</t>
+          <t>deh-valentin-chalier</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tommaso Valguarnera</t>
+          <t>Valentin Chalier</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Assoro, Sicília</t>
+          <t>Oulx, diocese de Turim</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>16270306</t>
+          <t>17150909</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -13974,27 +13974,27 @@
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>deh-valentim-stansel</t>
+          <t>deh-vautrin-baudre</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Valentim Stansel</t>
+          <t>Vautrin Baudré</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>França</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Olomouc</t>
+          <t>Saint-Mihiel, Meuse, diocese de Verdun</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>16371001</t>
+          <t>16861017</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -14007,12 +14007,12 @@
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>deh-valentin-chalier</t>
+          <t>deh-victor-agricola-poisson</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Valentin Chalier</t>
+          <t>Victor-Agricola Poisson</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14022,12 +14022,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Oulx, diocese de Turim</t>
+          <t>Billom, diocese de Clermont @wikidata:Q246257</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>17150909</t>
+          <t>17451014</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -14040,27 +14040,27 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>deh-vautrin-baudre</t>
+          <t>deh-vincenzo-carruba</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Vautrin Baudré</t>
+          <t>Vincenzo Carruba</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Saint-Mihiel, Meuse, diocese de Verdun</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>16861017</t>
+          <t>15920000</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -14073,27 +14073,27 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>deh-victor-agricola-poisson</t>
+          <t>deh-walter-ignazio-de-monte</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Victor-Agricola Poisson</t>
+          <t>Walter Ignazio de Monte</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Billom, diocese de Clermont @wikidata:Q246257</t>
+          <t>Lucerne</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>17451014</t>
+          <t>16280907</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -14106,27 +14106,27 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>deh-vincenzo-carruba</t>
+          <t>deh-xavier-duarte</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Vincenzo Carruba</t>
+          <t>Xavier Duarte</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>15920000</t>
+          <t>17361103</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -14134,32 +14134,36 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G407" t="inlineStr"/>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "ou 17361104"}}</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>deh-walter-ignazio-de-monte</t>
+          <t>joao-cardoso</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Walter Ignazio de Monte</t>
+          <t>João Cardoso</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Lucerne</t>
+          <t>Setúbal</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>16280907</t>
+          <t>16340000</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -14168,76 +14172,6 @@
         </is>
       </c>
       <c r="G408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="inlineStr">
-        <is>
-          <t>deh-xavier-duarte</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Xavier Duarte</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>17361103</t>
-        </is>
-      </c>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17361104"}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="inlineStr">
-        <is>
-          <t>joao-cardoso</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>João Cardoso</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>Setúbal</t>
-        </is>
-      </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>16340000</t>
-        </is>
-      </c>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="G410" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
